--- a/output.xlsx
+++ b/output.xlsx
@@ -408,7 +408,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H2" t="str">
-        <v>2e0ac20a</v>
+        <v>bf019159</v>
       </c>
     </row>
     <row r="3">
@@ -428,7 +428,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H3" t="str">
-        <v>aa3b968d</v>
+        <v>47c1b977</v>
       </c>
     </row>
     <row r="4">
@@ -448,7 +448,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H4" t="str">
-        <v>57e23ac8</v>
+        <v>6d612d5d</v>
       </c>
     </row>
     <row r="5">
@@ -468,7 +468,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H5" t="str">
-        <v>121a11d0</v>
+        <v>28d7ddfc</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H6" t="str">
-        <v>523dba9c</v>
+        <v>67296a4c</v>
       </c>
     </row>
     <row r="7">
@@ -508,7 +508,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H7" t="str">
-        <v>4f4ad8aa</v>
+        <v>615f3b7c</v>
       </c>
     </row>
     <row r="8">
@@ -528,7 +528,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H8" t="str">
-        <v>9447ef35</v>
+        <v>fb7e2051</v>
       </c>
     </row>
     <row r="9">
@@ -548,7 +548,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H9" t="str">
-        <v>924dbd1d</v>
+        <v>6c8b1c0b</v>
       </c>
     </row>
     <row r="10">
@@ -568,7 +568,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H10" t="str">
-        <v>f9f60ab6</v>
+        <v>72c60293</v>
       </c>
     </row>
     <row r="11">
@@ -588,7 +588,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H11" t="str">
-        <v>7262d395</v>
+        <v>3ffcc9c5</v>
       </c>
     </row>
     <row r="12">
@@ -608,7 +608,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H12" t="str">
-        <v>37d1d2d4</v>
+        <v>dc1bab92</v>
       </c>
     </row>
     <row r="13">
@@ -628,7 +628,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H13" t="str">
-        <v>a215ab79</v>
+        <v>3cef9c12</v>
       </c>
     </row>
     <row r="14">
@@ -648,7 +648,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H14" t="str">
-        <v>28d644a6</v>
+        <v>8db27518</v>
       </c>
     </row>
     <row r="15">
@@ -668,7 +668,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H15" t="str">
-        <v>bc529c03</v>
+        <v>c9a3e475</v>
       </c>
     </row>
     <row r="16">
@@ -688,7 +688,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H16" t="str">
-        <v>4cc41610</v>
+        <v>b2e07e75</v>
       </c>
     </row>
     <row r="17">
@@ -708,7 +708,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H17" t="str">
-        <v>c57401b0</v>
+        <v>8a424cb0</v>
       </c>
     </row>
     <row r="18">
@@ -728,7 +728,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H18" t="str">
-        <v>b001056a</v>
+        <v>29b185ca</v>
       </c>
     </row>
     <row r="19">
@@ -748,7 +748,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H19" t="str">
-        <v>4121c48d</v>
+        <v>c09adc33</v>
       </c>
     </row>
     <row r="20">
@@ -768,7 +768,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H20" t="str">
-        <v>9c8ba21c</v>
+        <v>b3a0b7e4</v>
       </c>
     </row>
     <row r="21">
@@ -788,7 +788,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H21" t="str">
-        <v>2ca75480</v>
+        <v>69cf9cba</v>
       </c>
     </row>
     <row r="22">
@@ -808,7 +808,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H22" t="str">
-        <v>5fff6a1d</v>
+        <v>98597b9e</v>
       </c>
     </row>
     <row r="23">
@@ -828,7 +828,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H23" t="str">
-        <v>13fd87c6</v>
+        <v>3c19e810</v>
       </c>
     </row>
     <row r="24">
@@ -848,7 +848,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H24" t="str">
-        <v>29ea1478</v>
+        <v>95116f5e</v>
       </c>
     </row>
     <row r="25">
@@ -868,7 +868,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H25" t="str">
-        <v>c102869e</v>
+        <v>e494f57b</v>
       </c>
     </row>
     <row r="26">
@@ -888,7 +888,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H26" t="str">
-        <v>665d1fa6</v>
+        <v>fa68a0ca</v>
       </c>
     </row>
     <row r="27">
@@ -908,7 +908,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H27" t="str">
-        <v>e9c1b897</v>
+        <v>309ba662</v>
       </c>
     </row>
     <row r="28">
@@ -928,7 +928,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H28" t="str">
-        <v>4af96902</v>
+        <v>272b4880</v>
       </c>
     </row>
     <row r="29">
@@ -948,7 +948,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H29" t="str">
-        <v>26753d7c</v>
+        <v>dcc0c16a</v>
       </c>
     </row>
     <row r="30">
@@ -968,7 +968,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H30" t="str">
-        <v>41221b03</v>
+        <v>429f1642</v>
       </c>
     </row>
     <row r="31">
@@ -988,7 +988,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H31" t="str">
-        <v>57efcc2a</v>
+        <v>20fc69f6</v>
       </c>
     </row>
     <row r="32">
@@ -1008,7 +1008,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H32" t="str">
-        <v>e4e3ce47</v>
+        <v>9099a5d3</v>
       </c>
     </row>
     <row r="33">
@@ -1028,7 +1028,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H33" t="str">
-        <v>7bd5eabb</v>
+        <v>44a05241</v>
       </c>
     </row>
     <row r="34">
@@ -1048,7 +1048,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H34" t="str">
-        <v>1c1b3f0f</v>
+        <v>275a796e</v>
       </c>
     </row>
     <row r="35">
@@ -1068,7 +1068,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H35" t="str">
-        <v>0db38066</v>
+        <v>10c7cdf4</v>
       </c>
     </row>
     <row r="36">
@@ -1088,7 +1088,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H36" t="str">
-        <v>5d3841ed</v>
+        <v>6615c904</v>
       </c>
     </row>
     <row r="37">
@@ -1108,7 +1108,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H37" t="str">
-        <v>6653ad39</v>
+        <v>4f1bc1b5</v>
       </c>
     </row>
     <row r="38">
@@ -1128,7 +1128,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H38" t="str">
-        <v>daede8d4</v>
+        <v>c48645d4</v>
       </c>
     </row>
     <row r="39">
@@ -1148,7 +1148,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H39" t="str">
-        <v>3bb369c0</v>
+        <v>05a23d12</v>
       </c>
     </row>
     <row r="40">
@@ -1168,7 +1168,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H40" t="str">
-        <v>fbc7e2a8</v>
+        <v>e50fcfb8</v>
       </c>
     </row>
     <row r="41">
@@ -1188,7 +1188,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H41" t="str">
-        <v>8691d7fd</v>
+        <v>1454d35b</v>
       </c>
     </row>
     <row r="42">
@@ -1208,7 +1208,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H42" t="str">
-        <v>5f31343c</v>
+        <v>d3e58995</v>
       </c>
     </row>
     <row r="43">
@@ -1228,7 +1228,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H43" t="str">
-        <v>0af9a55e</v>
+        <v>8483450c</v>
       </c>
     </row>
     <row r="44">
@@ -1248,7 +1248,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H44" t="str">
-        <v>bc8d192a</v>
+        <v>d6e8bc7a</v>
       </c>
     </row>
     <row r="45">
@@ -1268,7 +1268,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H45" t="str">
-        <v>b9771533</v>
+        <v>5d6d009d</v>
       </c>
     </row>
     <row r="46">
@@ -1288,7 +1288,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H46" t="str">
-        <v>d14237b0</v>
+        <v>677320f3</v>
       </c>
     </row>
     <row r="47">
@@ -1308,7 +1308,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H47" t="str">
-        <v>7679d167</v>
+        <v>16fec9d5</v>
       </c>
     </row>
     <row r="48">
@@ -1328,7 +1328,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H48" t="str">
-        <v>af1b85b9</v>
+        <v>435e2803</v>
       </c>
     </row>
     <row r="49">
@@ -1348,7 +1348,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H49" t="str">
-        <v>3bcf2087</v>
+        <v>5703b64c</v>
       </c>
     </row>
     <row r="50">
@@ -1368,7 +1368,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H50" t="str">
-        <v>9cfe3a08</v>
+        <v>9c628938</v>
       </c>
     </row>
     <row r="51">
@@ -1388,7 +1388,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H51" t="str">
-        <v>36c8170d</v>
+        <v>58d958ca</v>
       </c>
     </row>
     <row r="52">
@@ -1408,7 +1408,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H52" t="str">
-        <v>2e5a109d</v>
+        <v>6cc08753</v>
       </c>
     </row>
     <row r="53">
@@ -1428,7 +1428,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H53" t="str">
-        <v>d1d0ff80</v>
+        <v>09de16b4</v>
       </c>
     </row>
     <row r="54">
@@ -1448,7 +1448,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H54" t="str">
-        <v>7b8a7172</v>
+        <v>1bc59d32</v>
       </c>
     </row>
     <row r="55">
@@ -1468,7 +1468,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H55" t="str">
-        <v>d9f09c0f</v>
+        <v>b1f2a506</v>
       </c>
     </row>
     <row r="56">
@@ -1488,7 +1488,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H56" t="str">
-        <v>b531337a</v>
+        <v>e8b74d61</v>
       </c>
     </row>
     <row r="57">
@@ -1508,7 +1508,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H57" t="str">
-        <v>4a5254e1</v>
+        <v>713f6c95</v>
       </c>
     </row>
     <row r="58">
@@ -1528,7 +1528,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H58" t="str">
-        <v>6f1007e6</v>
+        <v>6fa029f7</v>
       </c>
     </row>
     <row r="59">
@@ -1548,7 +1548,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H59" t="str">
-        <v>4a974cb0</v>
+        <v>8766183c</v>
       </c>
     </row>
     <row r="60">
@@ -1568,7 +1568,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H60" t="str">
-        <v>6eb3c7d4</v>
+        <v>64475c37</v>
       </c>
     </row>
     <row r="61">
@@ -1588,7 +1588,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H61" t="str">
-        <v>db240dbb</v>
+        <v>7e3658e5</v>
       </c>
     </row>
     <row r="62">
@@ -1608,7 +1608,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H62" t="str">
-        <v>3a666233</v>
+        <v>ba22f786</v>
       </c>
     </row>
     <row r="63">
@@ -1628,7 +1628,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H63" t="str">
-        <v>99efb8b7</v>
+        <v>d74e3e49</v>
       </c>
     </row>
     <row r="64">
@@ -1648,7 +1648,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H64" t="str">
-        <v>bc898e9c</v>
+        <v>13c230eb</v>
       </c>
     </row>
     <row r="65">
@@ -1668,7 +1668,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H65" t="str">
-        <v>e0bc1b9c</v>
+        <v>e0da916a</v>
       </c>
     </row>
     <row r="66">
@@ -1688,7 +1688,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H66" t="str">
-        <v>78a1a96e</v>
+        <v>b03a7909</v>
       </c>
     </row>
     <row r="67">
@@ -1708,7 +1708,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H67" t="str">
-        <v>e8a97b78</v>
+        <v>03995c72</v>
       </c>
     </row>
     <row r="68">
@@ -1728,7 +1728,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H68" t="str">
-        <v>0356bb44</v>
+        <v>0929b833</v>
       </c>
     </row>
     <row r="69">
@@ -1748,7 +1748,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H69" t="str">
-        <v>f13f1bef</v>
+        <v>cb7a81da</v>
       </c>
     </row>
     <row r="70">
@@ -1768,7 +1768,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H70" t="str">
-        <v>1ba99aea</v>
+        <v>34837467</v>
       </c>
     </row>
     <row r="71">
@@ -1788,7 +1788,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H71" t="str">
-        <v>42df9812</v>
+        <v>b3ce27df</v>
       </c>
     </row>
     <row r="72">
@@ -1808,7 +1808,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H72" t="str">
-        <v>8b7d3c3d</v>
+        <v>98e11c3e</v>
       </c>
     </row>
     <row r="73">
@@ -1828,7 +1828,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H73" t="str">
-        <v>16f0f662</v>
+        <v>2b789e40</v>
       </c>
     </row>
     <row r="74">
@@ -1848,7 +1848,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H74" t="str">
-        <v>bb423e00</v>
+        <v>68cdfc1b</v>
       </c>
     </row>
     <row r="75">
@@ -1868,7 +1868,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H75" t="str">
-        <v>c4a6484a</v>
+        <v>501f88e5</v>
       </c>
     </row>
     <row r="76">
@@ -1888,7 +1888,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H76" t="str">
-        <v>4cfaa080</v>
+        <v>a4d6e88a</v>
       </c>
     </row>
     <row r="77">
@@ -1908,7 +1908,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H77" t="str">
-        <v>0436ea34</v>
+        <v>5e4051b5</v>
       </c>
     </row>
     <row r="78">
@@ -1928,7 +1928,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H78" t="str">
-        <v>f14bdb53</v>
+        <v>b7d1c874</v>
       </c>
     </row>
     <row r="79">
@@ -1948,7 +1948,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H79" t="str">
-        <v>1ac7b12e</v>
+        <v>8544c16a</v>
       </c>
     </row>
     <row r="80">
@@ -1968,7 +1968,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H80" t="str">
-        <v>bb1b7f01</v>
+        <v>36521617</v>
       </c>
     </row>
     <row r="81">
@@ -1988,7 +1988,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H81" t="str">
-        <v>2441f185</v>
+        <v>373a8c60</v>
       </c>
     </row>
     <row r="82">
@@ -2008,7 +2008,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H82" t="str">
-        <v>5bb6b41a</v>
+        <v>4b31cf56</v>
       </c>
     </row>
     <row r="83">
@@ -2028,7 +2028,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H83" t="str">
-        <v>7b3db78b</v>
+        <v>c2c27af5</v>
       </c>
     </row>
     <row r="84">
@@ -2048,7 +2048,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H84" t="str">
-        <v>defd1f9b</v>
+        <v>88209fa6</v>
       </c>
     </row>
     <row r="85">
@@ -2068,7 +2068,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H85" t="str">
-        <v>5795b301</v>
+        <v>a85645eb</v>
       </c>
     </row>
     <row r="86">
@@ -2088,7 +2088,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H86" t="str">
-        <v>2e8fbeba</v>
+        <v>824b9e11</v>
       </c>
     </row>
     <row r="87">
@@ -2108,7 +2108,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H87" t="str">
-        <v>86b71591</v>
+        <v>b3f64213</v>
       </c>
     </row>
     <row r="88">
@@ -2128,7 +2128,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H88" t="str">
-        <v>84ba6c00</v>
+        <v>a664fb9d</v>
       </c>
     </row>
     <row r="89">
@@ -2148,7 +2148,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H89" t="str">
-        <v>c967577f</v>
+        <v>2e31d215</v>
       </c>
     </row>
     <row r="90">
@@ -2168,7 +2168,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H90" t="str">
-        <v>0ee39eba</v>
+        <v>98226b49</v>
       </c>
     </row>
     <row r="91">
@@ -2188,7 +2188,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H91" t="str">
-        <v>e4e8efed</v>
+        <v>957deafe</v>
       </c>
     </row>
     <row r="92">
@@ -2208,7 +2208,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H92" t="str">
-        <v>d5e1f60d</v>
+        <v>392c8c5e</v>
       </c>
     </row>
     <row r="93">
@@ -2228,7 +2228,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H93" t="str">
-        <v>d587ee8f</v>
+        <v>421ffa27</v>
       </c>
     </row>
     <row r="94">
@@ -2248,7 +2248,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H94" t="str">
-        <v>c370529b</v>
+        <v>3c7b04c4</v>
       </c>
     </row>
     <row r="95">
@@ -2268,7 +2268,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H95" t="str">
-        <v>27220216</v>
+        <v>d36794ec</v>
       </c>
     </row>
     <row r="96">
@@ -2288,7 +2288,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H96" t="str">
-        <v>18620934</v>
+        <v>59baa06a</v>
       </c>
     </row>
     <row r="97">
@@ -2308,7 +2308,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H97" t="str">
-        <v>f54691a4</v>
+        <v>2b136d7f</v>
       </c>
     </row>
     <row r="98">
@@ -2328,7 +2328,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H98" t="str">
-        <v>434567d5</v>
+        <v>9abbb99c</v>
       </c>
     </row>
     <row r="99">
@@ -2348,7 +2348,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H99" t="str">
-        <v>179d5571</v>
+        <v>b51d0096</v>
       </c>
     </row>
     <row r="100">
@@ -2368,7 +2368,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H100" t="str">
-        <v>7f1bcf8c</v>
+        <v>61df32d3</v>
       </c>
     </row>
     <row r="101">
@@ -2388,7 +2388,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H101" t="str">
-        <v>58b93de8</v>
+        <v>56c2b224</v>
       </c>
     </row>
     <row r="102">
@@ -2408,7 +2408,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H102" t="str">
-        <v>fb576ffc</v>
+        <v>7dd8d7af</v>
       </c>
     </row>
     <row r="103">
@@ -2428,7 +2428,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H103" t="str">
-        <v>8bd59556</v>
+        <v>a61d0fd6</v>
       </c>
     </row>
     <row r="104">
@@ -2448,7 +2448,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H104" t="str">
-        <v>13d3a53f</v>
+        <v>fff99d48</v>
       </c>
     </row>
     <row r="105">
@@ -2468,7 +2468,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H105" t="str">
-        <v>c0f218e2</v>
+        <v>5e61d240</v>
       </c>
     </row>
     <row r="106">
@@ -2488,7 +2488,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H106" t="str">
-        <v>866f59ec</v>
+        <v>be479547</v>
       </c>
     </row>
     <row r="107">
@@ -2508,7 +2508,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H107" t="str">
-        <v>44cd3668</v>
+        <v>0a4860d1</v>
       </c>
     </row>
     <row r="108">
@@ -2528,7 +2528,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H108" t="str">
-        <v>793d3ecb</v>
+        <v>0a8af99c</v>
       </c>
     </row>
     <row r="109">
@@ -2548,7 +2548,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H109" t="str">
-        <v>028caca6</v>
+        <v>d3c0a899</v>
       </c>
     </row>
     <row r="110">
@@ -2568,7 +2568,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H110" t="str">
-        <v>4a116491</v>
+        <v>9ce8e1a5</v>
       </c>
     </row>
     <row r="111">
@@ -2588,7 +2588,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H111" t="str">
-        <v>f34e88c3</v>
+        <v>e39cb808</v>
       </c>
     </row>
     <row r="112">
@@ -2608,7 +2608,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H112" t="str">
-        <v>6a40b14a</v>
+        <v>96cbcce0</v>
       </c>
     </row>
     <row r="113">
@@ -2628,7 +2628,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H113" t="str">
-        <v>02bfd1fd</v>
+        <v>140dc951</v>
       </c>
     </row>
     <row r="114">
@@ -2648,7 +2648,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H114" t="str">
-        <v>a5bbb7f5</v>
+        <v>897ed2e6</v>
       </c>
     </row>
     <row r="115">
@@ -2668,7 +2668,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H115" t="str">
-        <v>56d80a17</v>
+        <v>dd4e40d5</v>
       </c>
     </row>
     <row r="116">
@@ -2688,7 +2688,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H116" t="str">
-        <v>410bcf05</v>
+        <v>aeab5169</v>
       </c>
     </row>
     <row r="117">
@@ -2708,7 +2708,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H117" t="str">
-        <v>2ba568f4</v>
+        <v>0fd50e82</v>
       </c>
     </row>
     <row r="118">
@@ -2728,7 +2728,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H118" t="str">
-        <v>106f50f4</v>
+        <v>bf20805e</v>
       </c>
     </row>
     <row r="119">
@@ -2748,7 +2748,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H119" t="str">
-        <v>4795e666</v>
+        <v>77e1de2e</v>
       </c>
     </row>
     <row r="120">
@@ -2768,7 +2768,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H120" t="str">
-        <v>94b4a14f</v>
+        <v>3b11e3ae</v>
       </c>
     </row>
     <row r="121">
@@ -2788,7 +2788,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H121" t="str">
-        <v>3c627ac1</v>
+        <v>d6331510</v>
       </c>
     </row>
     <row r="122">
@@ -2808,7 +2808,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H122" t="str">
-        <v>1a3822dc</v>
+        <v>8fbb9ddc</v>
       </c>
     </row>
     <row r="123">
@@ -2828,7 +2828,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H123" t="str">
-        <v>c1f150e5</v>
+        <v>f27e4420</v>
       </c>
     </row>
     <row r="124">
@@ -2848,7 +2848,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H124" t="str">
-        <v>222b26f9</v>
+        <v>9812aae8</v>
       </c>
     </row>
     <row r="125">
@@ -2868,7 +2868,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H125" t="str">
-        <v>acfa3bf2</v>
+        <v>39e3684e</v>
       </c>
     </row>
     <row r="126">
@@ -2888,7 +2888,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H126" t="str">
-        <v>ae2607cf</v>
+        <v>810b5cc5</v>
       </c>
     </row>
     <row r="127">
@@ -2908,7 +2908,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H127" t="str">
-        <v>a10ed388</v>
+        <v>07211cbe</v>
       </c>
     </row>
     <row r="128">
@@ -2928,7 +2928,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H128" t="str">
-        <v>4f9475bc</v>
+        <v>6412dce1</v>
       </c>
     </row>
     <row r="129">
@@ -2948,7 +2948,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H129" t="str">
-        <v>b8c58952</v>
+        <v>7a568351</v>
       </c>
     </row>
     <row r="130">
@@ -2968,7 +2968,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H130" t="str">
-        <v>1fe76e61</v>
+        <v>0e0c8310</v>
       </c>
     </row>
     <row r="131">
@@ -2988,7 +2988,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H131" t="str">
-        <v>10ce6f68</v>
+        <v>9f9ace53</v>
       </c>
     </row>
     <row r="132">
@@ -3008,7 +3008,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H132" t="str">
-        <v>0483b5a9</v>
+        <v>dfb1977f</v>
       </c>
     </row>
     <row r="133">
@@ -3028,7 +3028,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H133" t="str">
-        <v>ed7cc042</v>
+        <v>e539a76c</v>
       </c>
     </row>
     <row r="134">
@@ -3048,7 +3048,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H134" t="str">
-        <v>065558da</v>
+        <v>abae6bee</v>
       </c>
     </row>
     <row r="135">
@@ -3068,7 +3068,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H135" t="str">
-        <v>fde26ec9</v>
+        <v>2d61ca6c</v>
       </c>
     </row>
     <row r="136">
@@ -3088,7 +3088,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H136" t="str">
-        <v>12a8a49a</v>
+        <v>80e19a7b</v>
       </c>
     </row>
     <row r="137">
@@ -3108,7 +3108,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H137" t="str">
-        <v>45ae8733</v>
+        <v>b8056ebe</v>
       </c>
     </row>
     <row r="138">
@@ -3128,7 +3128,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H138" t="str">
-        <v>8bf75a52</v>
+        <v>6d97fb82</v>
       </c>
     </row>
     <row r="139">
@@ -3148,7 +3148,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H139" t="str">
-        <v>46182d4c</v>
+        <v>d4070d24</v>
       </c>
     </row>
     <row r="140">
@@ -3168,7 +3168,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H140" t="str">
-        <v>8554a796</v>
+        <v>9e87d3f5</v>
       </c>
     </row>
     <row r="141">
@@ -3188,7 +3188,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H141" t="str">
-        <v>c9deac39</v>
+        <v>a60fb1d3</v>
       </c>
     </row>
     <row r="142">
@@ -3208,7 +3208,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H142" t="str">
-        <v>178c0db6</v>
+        <v>0f52f933</v>
       </c>
     </row>
     <row r="143">
@@ -3228,7 +3228,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H143" t="str">
-        <v>f644a7b6</v>
+        <v>8e3603cb</v>
       </c>
     </row>
     <row r="144">
@@ -3248,7 +3248,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H144" t="str">
-        <v>3b74ab91</v>
+        <v>02a9c792</v>
       </c>
     </row>
     <row r="145">
@@ -3268,7 +3268,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H145" t="str">
-        <v>03e5a876</v>
+        <v>fe4ebbe5</v>
       </c>
     </row>
     <row r="146">
@@ -3288,7 +3288,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H146" t="str">
-        <v>b4668fa8</v>
+        <v>e46ccdcf</v>
       </c>
     </row>
     <row r="147">
@@ -3308,7 +3308,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H147" t="str">
-        <v>61f699f7</v>
+        <v>bfe476a4</v>
       </c>
     </row>
     <row r="148">
@@ -3328,7 +3328,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H148" t="str">
-        <v>309d6227</v>
+        <v>a752d402</v>
       </c>
     </row>
     <row r="149">
@@ -3348,7 +3348,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H149" t="str">
-        <v>d3ab2ee1</v>
+        <v>4362c7f1</v>
       </c>
     </row>
     <row r="150">
@@ -3368,7 +3368,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H150" t="str">
-        <v>ab6eff29</v>
+        <v>38bf7589</v>
       </c>
     </row>
     <row r="151">
@@ -3388,7 +3388,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H151" t="str">
-        <v>e2af01a2</v>
+        <v>97f88a1d</v>
       </c>
     </row>
     <row r="152">
@@ -3408,7 +3408,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H152" t="str">
-        <v>d1074f1d</v>
+        <v>e922725b</v>
       </c>
     </row>
     <row r="153">
@@ -3428,7 +3428,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H153" t="str">
-        <v>d6d7b5e1</v>
+        <v>b2f50ee7</v>
       </c>
     </row>
     <row r="154">
@@ -3448,7 +3448,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H154" t="str">
-        <v>6bd1ef7c</v>
+        <v>0bfeae0f</v>
       </c>
     </row>
     <row r="155">
@@ -3468,7 +3468,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H155" t="str">
-        <v>05333fa8</v>
+        <v>442a3fe5</v>
       </c>
     </row>
     <row r="156">
@@ -3488,7 +3488,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H156" t="str">
-        <v>8b8fb806</v>
+        <v>65300ca7</v>
       </c>
     </row>
     <row r="157">
@@ -3508,7 +3508,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H157" t="str">
-        <v>c6374e17</v>
+        <v>ed43a7ec</v>
       </c>
     </row>
     <row r="158">
@@ -3528,7 +3528,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H158" t="str">
-        <v>056fcd1e</v>
+        <v>d981ca78</v>
       </c>
     </row>
     <row r="159">
@@ -3548,7 +3548,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H159" t="str">
-        <v>79f403b7</v>
+        <v>11ec67fb</v>
       </c>
     </row>
     <row r="160">
@@ -3568,7 +3568,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H160" t="str">
-        <v>4fd50f1f</v>
+        <v>e90d9f56</v>
       </c>
     </row>
     <row r="161">
@@ -3588,7 +3588,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H161" t="str">
-        <v>69b7fc3a</v>
+        <v>cb5cb3c6</v>
       </c>
     </row>
     <row r="162">
@@ -3608,7 +3608,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H162" t="str">
-        <v>243f0584</v>
+        <v>588f4773</v>
       </c>
     </row>
     <row r="163">
@@ -3628,7 +3628,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H163" t="str">
-        <v>17b267e5</v>
+        <v>1cabf7be</v>
       </c>
     </row>
     <row r="164">
@@ -3648,7 +3648,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H164" t="str">
-        <v>d0447f0c</v>
+        <v>5ee10545</v>
       </c>
     </row>
     <row r="165">
@@ -3668,7 +3668,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H165" t="str">
-        <v>ac1a135e</v>
+        <v>8fb7a7c9</v>
       </c>
     </row>
     <row r="166">
@@ -3688,7 +3688,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H166" t="str">
-        <v>1719e9fd</v>
+        <v>07707ca5</v>
       </c>
     </row>
     <row r="167">
@@ -3708,7 +3708,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H167" t="str">
-        <v>63d021b0</v>
+        <v>ddc59a03</v>
       </c>
     </row>
     <row r="168">
@@ -3728,7 +3728,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H168" t="str">
-        <v>f67db341</v>
+        <v>07901a40</v>
       </c>
     </row>
     <row r="169">
@@ -3748,7 +3748,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H169" t="str">
-        <v>6d202181</v>
+        <v>19a1e60f</v>
       </c>
     </row>
     <row r="170">
@@ -3768,7 +3768,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H170" t="str">
-        <v>65352951</v>
+        <v>96dbb8a0</v>
       </c>
     </row>
     <row r="171">
@@ -3788,7 +3788,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H171" t="str">
-        <v>dddb144e</v>
+        <v>6cf8842e</v>
       </c>
     </row>
     <row r="172">
@@ -3808,7 +3808,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H172" t="str">
-        <v>476ba6e7</v>
+        <v>3fd71feb</v>
       </c>
     </row>
     <row r="173">
@@ -3828,7 +3828,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H173" t="str">
-        <v>1edf9309</v>
+        <v>33b46b06</v>
       </c>
     </row>
     <row r="174">
@@ -3848,7 +3848,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H174" t="str">
-        <v>d5c4d327</v>
+        <v>b95066a2</v>
       </c>
     </row>
     <row r="175">
@@ -3868,7 +3868,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H175" t="str">
-        <v>d86c3199</v>
+        <v>ef8590bc</v>
       </c>
     </row>
     <row r="176">
@@ -3888,7 +3888,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H176" t="str">
-        <v>6e386263</v>
+        <v>145f8308</v>
       </c>
     </row>
     <row r="177">
@@ -3908,7 +3908,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H177" t="str">
-        <v>4169935b</v>
+        <v>79edf2ea</v>
       </c>
     </row>
     <row r="178">
@@ -3928,7 +3928,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H178" t="str">
-        <v>59c2fa74</v>
+        <v>0125df67</v>
       </c>
     </row>
     <row r="179">
@@ -3948,7 +3948,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H179" t="str">
-        <v>bbda893a</v>
+        <v>ec96d6e0</v>
       </c>
     </row>
     <row r="180">
@@ -3968,7 +3968,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H180" t="str">
-        <v>42fd579b</v>
+        <v>46ac53e5</v>
       </c>
     </row>
     <row r="181">
@@ -3988,7 +3988,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H181" t="str">
-        <v>f5a3cc9a</v>
+        <v>07c82629</v>
       </c>
     </row>
     <row r="182">
@@ -4008,7 +4008,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H182" t="str">
-        <v>33681503</v>
+        <v>0f183d58</v>
       </c>
     </row>
     <row r="183">
@@ -4028,7 +4028,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H183" t="str">
-        <v>8aa55f28</v>
+        <v>2af50c4e</v>
       </c>
     </row>
     <row r="184">
@@ -4048,7 +4048,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H184" t="str">
-        <v>db3ce2ea</v>
+        <v>bc6d19b5</v>
       </c>
     </row>
     <row r="185">
@@ -4068,7 +4068,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H185" t="str">
-        <v>2cc0f033</v>
+        <v>59f25eb9</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -408,7 +408,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H2" t="str">
-        <v>bf019159</v>
+        <v>8d17b769</v>
       </c>
     </row>
     <row r="3">
@@ -428,7 +428,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H3" t="str">
-        <v>47c1b977</v>
+        <v>24829de7</v>
       </c>
     </row>
     <row r="4">
@@ -448,7 +448,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H4" t="str">
-        <v>6d612d5d</v>
+        <v>90eea3e0</v>
       </c>
     </row>
     <row r="5">
@@ -468,7 +468,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H5" t="str">
-        <v>28d7ddfc</v>
+        <v>6f2690d0</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H6" t="str">
-        <v>67296a4c</v>
+        <v>3e9225eb</v>
       </c>
     </row>
     <row r="7">
@@ -508,7 +508,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H7" t="str">
-        <v>615f3b7c</v>
+        <v>c9714ff9</v>
       </c>
     </row>
     <row r="8">
@@ -528,7 +528,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H8" t="str">
-        <v>fb7e2051</v>
+        <v>2b824983</v>
       </c>
     </row>
     <row r="9">
@@ -548,7 +548,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H9" t="str">
-        <v>6c8b1c0b</v>
+        <v>4f36369a</v>
       </c>
     </row>
     <row r="10">
@@ -568,7 +568,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H10" t="str">
-        <v>72c60293</v>
+        <v>4ffde464</v>
       </c>
     </row>
     <row r="11">
@@ -588,7 +588,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H11" t="str">
-        <v>3ffcc9c5</v>
+        <v>e525b96d</v>
       </c>
     </row>
     <row r="12">
@@ -608,7 +608,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H12" t="str">
-        <v>dc1bab92</v>
+        <v>6f40e9c6</v>
       </c>
     </row>
     <row r="13">
@@ -628,7 +628,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H13" t="str">
-        <v>3cef9c12</v>
+        <v>cc646a18</v>
       </c>
     </row>
     <row r="14">
@@ -648,7 +648,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H14" t="str">
-        <v>8db27518</v>
+        <v>b3d2e1dd</v>
       </c>
     </row>
     <row r="15">
@@ -668,7 +668,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H15" t="str">
-        <v>c9a3e475</v>
+        <v>6b74c6e6</v>
       </c>
     </row>
     <row r="16">
@@ -688,7 +688,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H16" t="str">
-        <v>b2e07e75</v>
+        <v>65cfde1e</v>
       </c>
     </row>
     <row r="17">
@@ -708,7 +708,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H17" t="str">
-        <v>8a424cb0</v>
+        <v>fd330e3e</v>
       </c>
     </row>
     <row r="18">
@@ -728,7 +728,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H18" t="str">
-        <v>29b185ca</v>
+        <v>f6a2a7e4</v>
       </c>
     </row>
     <row r="19">
@@ -748,7 +748,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H19" t="str">
-        <v>c09adc33</v>
+        <v>70e9bfa4</v>
       </c>
     </row>
     <row r="20">
@@ -768,7 +768,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H20" t="str">
-        <v>b3a0b7e4</v>
+        <v>1d8e4595</v>
       </c>
     </row>
     <row r="21">
@@ -788,7 +788,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H21" t="str">
-        <v>69cf9cba</v>
+        <v>d6831f3f</v>
       </c>
     </row>
     <row r="22">
@@ -808,7 +808,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H22" t="str">
-        <v>98597b9e</v>
+        <v>5570e46c</v>
       </c>
     </row>
     <row r="23">
@@ -828,7 +828,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H23" t="str">
-        <v>3c19e810</v>
+        <v>50bb32bf</v>
       </c>
     </row>
     <row r="24">
@@ -848,7 +848,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H24" t="str">
-        <v>95116f5e</v>
+        <v>f31b2e80</v>
       </c>
     </row>
     <row r="25">
@@ -868,7 +868,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H25" t="str">
-        <v>e494f57b</v>
+        <v>229ecfce</v>
       </c>
     </row>
     <row r="26">
@@ -888,7 +888,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H26" t="str">
-        <v>fa68a0ca</v>
+        <v>7cc00c3e</v>
       </c>
     </row>
     <row r="27">
@@ -908,7 +908,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H27" t="str">
-        <v>309ba662</v>
+        <v>ebc0109d</v>
       </c>
     </row>
     <row r="28">
@@ -928,7 +928,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H28" t="str">
-        <v>272b4880</v>
+        <v>9d2e7e8d</v>
       </c>
     </row>
     <row r="29">
@@ -948,7 +948,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H29" t="str">
-        <v>dcc0c16a</v>
+        <v>02f01563</v>
       </c>
     </row>
     <row r="30">
@@ -968,7 +968,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H30" t="str">
-        <v>429f1642</v>
+        <v>e7e8e229</v>
       </c>
     </row>
     <row r="31">
@@ -988,7 +988,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H31" t="str">
-        <v>20fc69f6</v>
+        <v>aec22f0a</v>
       </c>
     </row>
     <row r="32">
@@ -1008,7 +1008,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H32" t="str">
-        <v>9099a5d3</v>
+        <v>1fe37c13</v>
       </c>
     </row>
     <row r="33">
@@ -1028,7 +1028,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H33" t="str">
-        <v>44a05241</v>
+        <v>ab34219d</v>
       </c>
     </row>
     <row r="34">
@@ -1048,7 +1048,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H34" t="str">
-        <v>275a796e</v>
+        <v>b30e1fb0</v>
       </c>
     </row>
     <row r="35">
@@ -1068,7 +1068,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H35" t="str">
-        <v>10c7cdf4</v>
+        <v>3cbaadd8</v>
       </c>
     </row>
     <row r="36">
@@ -1088,7 +1088,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H36" t="str">
-        <v>6615c904</v>
+        <v>82964ba7</v>
       </c>
     </row>
     <row r="37">
@@ -1108,7 +1108,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H37" t="str">
-        <v>4f1bc1b5</v>
+        <v>96961bbf</v>
       </c>
     </row>
     <row r="38">
@@ -1128,7 +1128,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H38" t="str">
-        <v>c48645d4</v>
+        <v>183c3e0b</v>
       </c>
     </row>
     <row r="39">
@@ -1148,7 +1148,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H39" t="str">
-        <v>05a23d12</v>
+        <v>ebfef966</v>
       </c>
     </row>
     <row r="40">
@@ -1168,7 +1168,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H40" t="str">
-        <v>e50fcfb8</v>
+        <v>f6dda408</v>
       </c>
     </row>
     <row r="41">
@@ -1188,7 +1188,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H41" t="str">
-        <v>1454d35b</v>
+        <v>77579898</v>
       </c>
     </row>
     <row r="42">
@@ -1208,7 +1208,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H42" t="str">
-        <v>d3e58995</v>
+        <v>f2a05a23</v>
       </c>
     </row>
     <row r="43">
@@ -1228,7 +1228,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H43" t="str">
-        <v>8483450c</v>
+        <v>cca5a896</v>
       </c>
     </row>
     <row r="44">
@@ -1248,7 +1248,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H44" t="str">
-        <v>d6e8bc7a</v>
+        <v>3241ba84</v>
       </c>
     </row>
     <row r="45">
@@ -1268,7 +1268,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H45" t="str">
-        <v>5d6d009d</v>
+        <v>eb3226cd</v>
       </c>
     </row>
     <row r="46">
@@ -1288,7 +1288,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H46" t="str">
-        <v>677320f3</v>
+        <v>9f5d24a9</v>
       </c>
     </row>
     <row r="47">
@@ -1308,7 +1308,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H47" t="str">
-        <v>16fec9d5</v>
+        <v>2ca7fbcd</v>
       </c>
     </row>
     <row r="48">
@@ -1328,7 +1328,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H48" t="str">
-        <v>435e2803</v>
+        <v>04cfe122</v>
       </c>
     </row>
     <row r="49">
@@ -1348,7 +1348,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H49" t="str">
-        <v>5703b64c</v>
+        <v>0521e4c1</v>
       </c>
     </row>
     <row r="50">
@@ -1368,7 +1368,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H50" t="str">
-        <v>9c628938</v>
+        <v>717862d8</v>
       </c>
     </row>
     <row r="51">
@@ -1388,7 +1388,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H51" t="str">
-        <v>58d958ca</v>
+        <v>4df90b18</v>
       </c>
     </row>
     <row r="52">
@@ -1408,7 +1408,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H52" t="str">
-        <v>6cc08753</v>
+        <v>a5cc5991</v>
       </c>
     </row>
     <row r="53">
@@ -1428,7 +1428,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H53" t="str">
-        <v>09de16b4</v>
+        <v>a63ae929</v>
       </c>
     </row>
     <row r="54">
@@ -1448,7 +1448,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H54" t="str">
-        <v>1bc59d32</v>
+        <v>079bbd60</v>
       </c>
     </row>
     <row r="55">
@@ -1468,7 +1468,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H55" t="str">
-        <v>b1f2a506</v>
+        <v>7b21a1b0</v>
       </c>
     </row>
     <row r="56">
@@ -1488,7 +1488,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H56" t="str">
-        <v>e8b74d61</v>
+        <v>d5746857</v>
       </c>
     </row>
     <row r="57">
@@ -1508,7 +1508,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H57" t="str">
-        <v>713f6c95</v>
+        <v>53acd6bc</v>
       </c>
     </row>
     <row r="58">
@@ -1528,7 +1528,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H58" t="str">
-        <v>6fa029f7</v>
+        <v>ac7f7878</v>
       </c>
     </row>
     <row r="59">
@@ -1548,7 +1548,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H59" t="str">
-        <v>8766183c</v>
+        <v>3e6cee32</v>
       </c>
     </row>
     <row r="60">
@@ -1568,7 +1568,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H60" t="str">
-        <v>64475c37</v>
+        <v>a823ebc0</v>
       </c>
     </row>
     <row r="61">
@@ -1588,7 +1588,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H61" t="str">
-        <v>7e3658e5</v>
+        <v>aca6cb06</v>
       </c>
     </row>
     <row r="62">
@@ -1608,7 +1608,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H62" t="str">
-        <v>ba22f786</v>
+        <v>c07c1845</v>
       </c>
     </row>
     <row r="63">
@@ -1628,7 +1628,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H63" t="str">
-        <v>d74e3e49</v>
+        <v>94dc2d22</v>
       </c>
     </row>
     <row r="64">
@@ -1648,7 +1648,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H64" t="str">
-        <v>13c230eb</v>
+        <v>1ffdc7be</v>
       </c>
     </row>
     <row r="65">
@@ -1668,7 +1668,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H65" t="str">
-        <v>e0da916a</v>
+        <v>68d16342</v>
       </c>
     </row>
     <row r="66">
@@ -1688,7 +1688,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H66" t="str">
-        <v>b03a7909</v>
+        <v>c8ae7ec0</v>
       </c>
     </row>
     <row r="67">
@@ -1708,7 +1708,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H67" t="str">
-        <v>03995c72</v>
+        <v>17db686d</v>
       </c>
     </row>
     <row r="68">
@@ -1728,7 +1728,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H68" t="str">
-        <v>0929b833</v>
+        <v>cb98da8c</v>
       </c>
     </row>
     <row r="69">
@@ -1748,7 +1748,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H69" t="str">
-        <v>cb7a81da</v>
+        <v>6fa2656d</v>
       </c>
     </row>
     <row r="70">
@@ -1768,7 +1768,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H70" t="str">
-        <v>34837467</v>
+        <v>d9d03f8f</v>
       </c>
     </row>
     <row r="71">
@@ -1788,7 +1788,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H71" t="str">
-        <v>b3ce27df</v>
+        <v>dc3539d9</v>
       </c>
     </row>
     <row r="72">
@@ -1808,7 +1808,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H72" t="str">
-        <v>98e11c3e</v>
+        <v>80608ea5</v>
       </c>
     </row>
     <row r="73">
@@ -1828,7 +1828,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H73" t="str">
-        <v>2b789e40</v>
+        <v>67c87514</v>
       </c>
     </row>
     <row r="74">
@@ -1848,7 +1848,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H74" t="str">
-        <v>68cdfc1b</v>
+        <v>5508b553</v>
       </c>
     </row>
     <row r="75">
@@ -1868,7 +1868,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H75" t="str">
-        <v>501f88e5</v>
+        <v>4ab38104</v>
       </c>
     </row>
     <row r="76">
@@ -1888,7 +1888,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H76" t="str">
-        <v>a4d6e88a</v>
+        <v>db9ef725</v>
       </c>
     </row>
     <row r="77">
@@ -1908,7 +1908,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H77" t="str">
-        <v>5e4051b5</v>
+        <v>91b3d059</v>
       </c>
     </row>
     <row r="78">
@@ -1928,7 +1928,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H78" t="str">
-        <v>b7d1c874</v>
+        <v>99664506</v>
       </c>
     </row>
     <row r="79">
@@ -1948,7 +1948,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H79" t="str">
-        <v>8544c16a</v>
+        <v>291c1443</v>
       </c>
     </row>
     <row r="80">
@@ -1968,7 +1968,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H80" t="str">
-        <v>36521617</v>
+        <v>aa7daa52</v>
       </c>
     </row>
     <row r="81">
@@ -1988,7 +1988,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H81" t="str">
-        <v>373a8c60</v>
+        <v>ca9df21a</v>
       </c>
     </row>
     <row r="82">
@@ -2008,7 +2008,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H82" t="str">
-        <v>4b31cf56</v>
+        <v>711f7c77</v>
       </c>
     </row>
     <row r="83">
@@ -2028,7 +2028,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H83" t="str">
-        <v>c2c27af5</v>
+        <v>c41c2b05</v>
       </c>
     </row>
     <row r="84">
@@ -2048,7 +2048,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H84" t="str">
-        <v>88209fa6</v>
+        <v>77f7d438</v>
       </c>
     </row>
     <row r="85">
@@ -2068,7 +2068,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H85" t="str">
-        <v>a85645eb</v>
+        <v>5403aa6b</v>
       </c>
     </row>
     <row r="86">
@@ -2088,7 +2088,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H86" t="str">
-        <v>824b9e11</v>
+        <v>401c4817</v>
       </c>
     </row>
     <row r="87">
@@ -2108,7 +2108,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H87" t="str">
-        <v>b3f64213</v>
+        <v>48bc7271</v>
       </c>
     </row>
     <row r="88">
@@ -2128,7 +2128,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H88" t="str">
-        <v>a664fb9d</v>
+        <v>50eedafc</v>
       </c>
     </row>
     <row r="89">
@@ -2148,7 +2148,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H89" t="str">
-        <v>2e31d215</v>
+        <v>e21d26d1</v>
       </c>
     </row>
     <row r="90">
@@ -2168,7 +2168,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H90" t="str">
-        <v>98226b49</v>
+        <v>24993800</v>
       </c>
     </row>
     <row r="91">
@@ -2188,7 +2188,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H91" t="str">
-        <v>957deafe</v>
+        <v>8a203289</v>
       </c>
     </row>
     <row r="92">
@@ -2208,7 +2208,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H92" t="str">
-        <v>392c8c5e</v>
+        <v>7ba4792a</v>
       </c>
     </row>
     <row r="93">
@@ -2228,7 +2228,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H93" t="str">
-        <v>421ffa27</v>
+        <v>72fb5ffd</v>
       </c>
     </row>
     <row r="94">
@@ -2248,7 +2248,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H94" t="str">
-        <v>3c7b04c4</v>
+        <v>3a567d2e</v>
       </c>
     </row>
     <row r="95">
@@ -2268,7 +2268,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H95" t="str">
-        <v>d36794ec</v>
+        <v>8441368c</v>
       </c>
     </row>
     <row r="96">
@@ -2288,7 +2288,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H96" t="str">
-        <v>59baa06a</v>
+        <v>fe723804</v>
       </c>
     </row>
     <row r="97">
@@ -2308,7 +2308,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H97" t="str">
-        <v>2b136d7f</v>
+        <v>90c46085</v>
       </c>
     </row>
     <row r="98">
@@ -2328,7 +2328,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H98" t="str">
-        <v>9abbb99c</v>
+        <v>4624e8f2</v>
       </c>
     </row>
     <row r="99">
@@ -2348,7 +2348,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H99" t="str">
-        <v>b51d0096</v>
+        <v>454885ea</v>
       </c>
     </row>
     <row r="100">
@@ -2368,7 +2368,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H100" t="str">
-        <v>61df32d3</v>
+        <v>2db4bc4b</v>
       </c>
     </row>
     <row r="101">
@@ -2388,7 +2388,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H101" t="str">
-        <v>56c2b224</v>
+        <v>7f3463e0</v>
       </c>
     </row>
     <row r="102">
@@ -2408,7 +2408,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H102" t="str">
-        <v>7dd8d7af</v>
+        <v>4416dd66</v>
       </c>
     </row>
     <row r="103">
@@ -2428,7 +2428,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H103" t="str">
-        <v>a61d0fd6</v>
+        <v>1675f073</v>
       </c>
     </row>
     <row r="104">
@@ -2448,7 +2448,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H104" t="str">
-        <v>fff99d48</v>
+        <v>f4c0e440</v>
       </c>
     </row>
     <row r="105">
@@ -2468,7 +2468,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H105" t="str">
-        <v>5e61d240</v>
+        <v>b86dfbd6</v>
       </c>
     </row>
     <row r="106">
@@ -2488,7 +2488,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H106" t="str">
-        <v>be479547</v>
+        <v>011d34a9</v>
       </c>
     </row>
     <row r="107">
@@ -2508,7 +2508,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H107" t="str">
-        <v>0a4860d1</v>
+        <v>b1df8427</v>
       </c>
     </row>
     <row r="108">
@@ -2528,7 +2528,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H108" t="str">
-        <v>0a8af99c</v>
+        <v>6acd57d7</v>
       </c>
     </row>
     <row r="109">
@@ -2548,7 +2548,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H109" t="str">
-        <v>d3c0a899</v>
+        <v>f966baa6</v>
       </c>
     </row>
     <row r="110">
@@ -2568,7 +2568,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H110" t="str">
-        <v>9ce8e1a5</v>
+        <v>4cde8baf</v>
       </c>
     </row>
     <row r="111">
@@ -2588,7 +2588,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H111" t="str">
-        <v>e39cb808</v>
+        <v>25b76a74</v>
       </c>
     </row>
     <row r="112">
@@ -2608,7 +2608,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H112" t="str">
-        <v>96cbcce0</v>
+        <v>80b76988</v>
       </c>
     </row>
     <row r="113">
@@ -2628,7 +2628,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H113" t="str">
-        <v>140dc951</v>
+        <v>1a84957f</v>
       </c>
     </row>
     <row r="114">
@@ -2648,7 +2648,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H114" t="str">
-        <v>897ed2e6</v>
+        <v>4e9eda41</v>
       </c>
     </row>
     <row r="115">
@@ -2668,7 +2668,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H115" t="str">
-        <v>dd4e40d5</v>
+        <v>f8768cc3</v>
       </c>
     </row>
     <row r="116">
@@ -2688,7 +2688,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H116" t="str">
-        <v>aeab5169</v>
+        <v>0d42278d</v>
       </c>
     </row>
     <row r="117">
@@ -2708,7 +2708,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H117" t="str">
-        <v>0fd50e82</v>
+        <v>6ee73679</v>
       </c>
     </row>
     <row r="118">
@@ -2728,7 +2728,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H118" t="str">
-        <v>bf20805e</v>
+        <v>927f2d79</v>
       </c>
     </row>
     <row r="119">
@@ -2748,7 +2748,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H119" t="str">
-        <v>77e1de2e</v>
+        <v>51d7e17b</v>
       </c>
     </row>
     <row r="120">
@@ -2768,7 +2768,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H120" t="str">
-        <v>3b11e3ae</v>
+        <v>ee7ba6cc</v>
       </c>
     </row>
     <row r="121">
@@ -2788,7 +2788,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H121" t="str">
-        <v>d6331510</v>
+        <v>72682f21</v>
       </c>
     </row>
     <row r="122">
@@ -2808,7 +2808,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H122" t="str">
-        <v>8fbb9ddc</v>
+        <v>eddd77ca</v>
       </c>
     </row>
     <row r="123">
@@ -2828,7 +2828,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H123" t="str">
-        <v>f27e4420</v>
+        <v>d1f83463</v>
       </c>
     </row>
     <row r="124">
@@ -2848,7 +2848,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H124" t="str">
-        <v>9812aae8</v>
+        <v>b57c26be</v>
       </c>
     </row>
     <row r="125">
@@ -2868,7 +2868,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H125" t="str">
-        <v>39e3684e</v>
+        <v>aaf00548</v>
       </c>
     </row>
     <row r="126">
@@ -2888,7 +2888,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H126" t="str">
-        <v>810b5cc5</v>
+        <v>3fb81e3a</v>
       </c>
     </row>
     <row r="127">
@@ -2908,7 +2908,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H127" t="str">
-        <v>07211cbe</v>
+        <v>80e066b0</v>
       </c>
     </row>
     <row r="128">
@@ -2928,7 +2928,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H128" t="str">
-        <v>6412dce1</v>
+        <v>aa6bee94</v>
       </c>
     </row>
     <row r="129">
@@ -2948,7 +2948,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H129" t="str">
-        <v>7a568351</v>
+        <v>6dde8119</v>
       </c>
     </row>
     <row r="130">
@@ -2968,7 +2968,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H130" t="str">
-        <v>0e0c8310</v>
+        <v>564a3ba5</v>
       </c>
     </row>
     <row r="131">
@@ -2988,7 +2988,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H131" t="str">
-        <v>9f9ace53</v>
+        <v>4deae63c</v>
       </c>
     </row>
     <row r="132">
@@ -3008,7 +3008,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H132" t="str">
-        <v>dfb1977f</v>
+        <v>39c0f41d</v>
       </c>
     </row>
     <row r="133">
@@ -3028,7 +3028,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H133" t="str">
-        <v>e539a76c</v>
+        <v>dcfb8d7b</v>
       </c>
     </row>
     <row r="134">
@@ -3048,7 +3048,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H134" t="str">
-        <v>abae6bee</v>
+        <v>06ee5ad7</v>
       </c>
     </row>
     <row r="135">
@@ -3068,7 +3068,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H135" t="str">
-        <v>2d61ca6c</v>
+        <v>6e8ee685</v>
       </c>
     </row>
     <row r="136">
@@ -3088,7 +3088,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H136" t="str">
-        <v>80e19a7b</v>
+        <v>ad0aff28</v>
       </c>
     </row>
     <row r="137">
@@ -3108,7 +3108,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H137" t="str">
-        <v>b8056ebe</v>
+        <v>5b095c05</v>
       </c>
     </row>
     <row r="138">
@@ -3128,7 +3128,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H138" t="str">
-        <v>6d97fb82</v>
+        <v>9101bc58</v>
       </c>
     </row>
     <row r="139">
@@ -3148,7 +3148,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H139" t="str">
-        <v>d4070d24</v>
+        <v>b4dbdf95</v>
       </c>
     </row>
     <row r="140">
@@ -3168,7 +3168,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H140" t="str">
-        <v>9e87d3f5</v>
+        <v>2b98fa60</v>
       </c>
     </row>
     <row r="141">
@@ -3188,7 +3188,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H141" t="str">
-        <v>a60fb1d3</v>
+        <v>8b3934b2</v>
       </c>
     </row>
     <row r="142">
@@ -3208,7 +3208,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H142" t="str">
-        <v>0f52f933</v>
+        <v>a55f7b3e</v>
       </c>
     </row>
     <row r="143">
@@ -3228,7 +3228,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H143" t="str">
-        <v>8e3603cb</v>
+        <v>18ca68f7</v>
       </c>
     </row>
     <row r="144">
@@ -3248,7 +3248,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H144" t="str">
-        <v>02a9c792</v>
+        <v>67277a59</v>
       </c>
     </row>
     <row r="145">
@@ -3268,7 +3268,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H145" t="str">
-        <v>fe4ebbe5</v>
+        <v>a74648c6</v>
       </c>
     </row>
     <row r="146">
@@ -3288,7 +3288,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H146" t="str">
-        <v>e46ccdcf</v>
+        <v>1e23706b</v>
       </c>
     </row>
     <row r="147">
@@ -3308,7 +3308,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H147" t="str">
-        <v>bfe476a4</v>
+        <v>170680c7</v>
       </c>
     </row>
     <row r="148">
@@ -3328,7 +3328,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H148" t="str">
-        <v>a752d402</v>
+        <v>ee639a54</v>
       </c>
     </row>
     <row r="149">
@@ -3348,7 +3348,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H149" t="str">
-        <v>4362c7f1</v>
+        <v>e9ccc0e5</v>
       </c>
     </row>
     <row r="150">
@@ -3368,7 +3368,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H150" t="str">
-        <v>38bf7589</v>
+        <v>e651999e</v>
       </c>
     </row>
     <row r="151">
@@ -3388,7 +3388,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H151" t="str">
-        <v>97f88a1d</v>
+        <v>705653cd</v>
       </c>
     </row>
     <row r="152">
@@ -3408,7 +3408,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H152" t="str">
-        <v>e922725b</v>
+        <v>e287f5d2</v>
       </c>
     </row>
     <row r="153">
@@ -3428,7 +3428,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H153" t="str">
-        <v>b2f50ee7</v>
+        <v>5eb69109</v>
       </c>
     </row>
     <row r="154">
@@ -3448,7 +3448,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H154" t="str">
-        <v>0bfeae0f</v>
+        <v>216ad457</v>
       </c>
     </row>
     <row r="155">
@@ -3468,7 +3468,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H155" t="str">
-        <v>442a3fe5</v>
+        <v>b584bb1e</v>
       </c>
     </row>
     <row r="156">
@@ -3488,7 +3488,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H156" t="str">
-        <v>65300ca7</v>
+        <v>2f37a8ab</v>
       </c>
     </row>
     <row r="157">
@@ -3508,7 +3508,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H157" t="str">
-        <v>ed43a7ec</v>
+        <v>2c5a556e</v>
       </c>
     </row>
     <row r="158">
@@ -3528,7 +3528,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H158" t="str">
-        <v>d981ca78</v>
+        <v>eb80a458</v>
       </c>
     </row>
     <row r="159">
@@ -3548,7 +3548,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H159" t="str">
-        <v>11ec67fb</v>
+        <v>21d8a848</v>
       </c>
     </row>
     <row r="160">
@@ -3568,7 +3568,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H160" t="str">
-        <v>e90d9f56</v>
+        <v>a0f5f988</v>
       </c>
     </row>
     <row r="161">
@@ -3588,7 +3588,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H161" t="str">
-        <v>cb5cb3c6</v>
+        <v>042b3dc7</v>
       </c>
     </row>
     <row r="162">
@@ -3608,7 +3608,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H162" t="str">
-        <v>588f4773</v>
+        <v>a58616d7</v>
       </c>
     </row>
     <row r="163">
@@ -3628,7 +3628,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H163" t="str">
-        <v>1cabf7be</v>
+        <v>0225826f</v>
       </c>
     </row>
     <row r="164">
@@ -3648,7 +3648,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H164" t="str">
-        <v>5ee10545</v>
+        <v>098aaaa0</v>
       </c>
     </row>
     <row r="165">
@@ -3668,7 +3668,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H165" t="str">
-        <v>8fb7a7c9</v>
+        <v>f98fb847</v>
       </c>
     </row>
     <row r="166">
@@ -3688,7 +3688,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H166" t="str">
-        <v>07707ca5</v>
+        <v>0ffe8fdb</v>
       </c>
     </row>
     <row r="167">
@@ -3708,7 +3708,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H167" t="str">
-        <v>ddc59a03</v>
+        <v>1cde2f64</v>
       </c>
     </row>
     <row r="168">
@@ -3728,7 +3728,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H168" t="str">
-        <v>07901a40</v>
+        <v>3728f14c</v>
       </c>
     </row>
     <row r="169">
@@ -3748,7 +3748,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H169" t="str">
-        <v>19a1e60f</v>
+        <v>9d4f80b3</v>
       </c>
     </row>
     <row r="170">
@@ -3768,7 +3768,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H170" t="str">
-        <v>96dbb8a0</v>
+        <v>65fa6f8f</v>
       </c>
     </row>
     <row r="171">
@@ -3788,7 +3788,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H171" t="str">
-        <v>6cf8842e</v>
+        <v>f427b862</v>
       </c>
     </row>
     <row r="172">
@@ -3808,7 +3808,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H172" t="str">
-        <v>3fd71feb</v>
+        <v>8c4541a4</v>
       </c>
     </row>
     <row r="173">
@@ -3828,7 +3828,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H173" t="str">
-        <v>33b46b06</v>
+        <v>866c192c</v>
       </c>
     </row>
     <row r="174">
@@ -3848,7 +3848,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H174" t="str">
-        <v>b95066a2</v>
+        <v>155b7ca5</v>
       </c>
     </row>
     <row r="175">
@@ -3868,7 +3868,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H175" t="str">
-        <v>ef8590bc</v>
+        <v>f474ed03</v>
       </c>
     </row>
     <row r="176">
@@ -3888,7 +3888,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H176" t="str">
-        <v>145f8308</v>
+        <v>d5377d08</v>
       </c>
     </row>
     <row r="177">
@@ -3908,7 +3908,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H177" t="str">
-        <v>79edf2ea</v>
+        <v>e34c0411</v>
       </c>
     </row>
     <row r="178">
@@ -3928,7 +3928,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H178" t="str">
-        <v>0125df67</v>
+        <v>8457872b</v>
       </c>
     </row>
     <row r="179">
@@ -3948,7 +3948,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H179" t="str">
-        <v>ec96d6e0</v>
+        <v>bf12e810</v>
       </c>
     </row>
     <row r="180">
@@ -3968,7 +3968,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H180" t="str">
-        <v>46ac53e5</v>
+        <v>d650cbc0</v>
       </c>
     </row>
     <row r="181">
@@ -3988,7 +3988,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H181" t="str">
-        <v>07c82629</v>
+        <v>e2b571c9</v>
       </c>
     </row>
     <row r="182">
@@ -4008,7 +4008,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H182" t="str">
-        <v>0f183d58</v>
+        <v>3f05ed6c</v>
       </c>
     </row>
     <row r="183">
@@ -4028,7 +4028,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H183" t="str">
-        <v>2af50c4e</v>
+        <v>ff8a6fe1</v>
       </c>
     </row>
     <row r="184">
@@ -4048,7 +4048,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H184" t="str">
-        <v>bc6d19b5</v>
+        <v>f1832933</v>
       </c>
     </row>
     <row r="185">
@@ -4068,7 +4068,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H185" t="str">
-        <v>59f25eb9</v>
+        <v>cf6785c0</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -408,7 +408,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H2" t="str">
-        <v>8d17b769</v>
+        <v>af099477</v>
       </c>
     </row>
     <row r="3">
@@ -428,7 +428,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H3" t="str">
-        <v>24829de7</v>
+        <v>796b1430</v>
       </c>
     </row>
     <row r="4">
@@ -448,7 +448,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H4" t="str">
-        <v>90eea3e0</v>
+        <v>ba4ff582</v>
       </c>
     </row>
     <row r="5">
@@ -468,7 +468,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H5" t="str">
-        <v>6f2690d0</v>
+        <v>12e20d5e</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H6" t="str">
-        <v>3e9225eb</v>
+        <v>0c598d6b</v>
       </c>
     </row>
     <row r="7">
@@ -508,7 +508,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H7" t="str">
-        <v>c9714ff9</v>
+        <v>f22692e3</v>
       </c>
     </row>
     <row r="8">
@@ -528,7 +528,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H8" t="str">
-        <v>2b824983</v>
+        <v>1d8d0241</v>
       </c>
     </row>
     <row r="9">
@@ -548,7 +548,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H9" t="str">
-        <v>4f36369a</v>
+        <v>392a0e3d</v>
       </c>
     </row>
     <row r="10">
@@ -568,7 +568,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H10" t="str">
-        <v>4ffde464</v>
+        <v>c15ca7d4</v>
       </c>
     </row>
     <row r="11">
@@ -588,7 +588,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H11" t="str">
-        <v>e525b96d</v>
+        <v>488c02a5</v>
       </c>
     </row>
     <row r="12">
@@ -608,7 +608,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H12" t="str">
-        <v>6f40e9c6</v>
+        <v>5fd47653</v>
       </c>
     </row>
     <row r="13">
@@ -628,7 +628,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H13" t="str">
-        <v>cc646a18</v>
+        <v>187c5194</v>
       </c>
     </row>
     <row r="14">
@@ -648,7 +648,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H14" t="str">
-        <v>b3d2e1dd</v>
+        <v>1927ce30</v>
       </c>
     </row>
     <row r="15">
@@ -668,7 +668,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H15" t="str">
-        <v>6b74c6e6</v>
+        <v>b7283f31</v>
       </c>
     </row>
     <row r="16">
@@ -688,7 +688,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H16" t="str">
-        <v>65cfde1e</v>
+        <v>5c56eefb</v>
       </c>
     </row>
     <row r="17">
@@ -708,7 +708,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H17" t="str">
-        <v>fd330e3e</v>
+        <v>ebbf7b2a</v>
       </c>
     </row>
     <row r="18">
@@ -728,7 +728,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H18" t="str">
-        <v>f6a2a7e4</v>
+        <v>928ac21f</v>
       </c>
     </row>
     <row r="19">
@@ -748,7 +748,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H19" t="str">
-        <v>70e9bfa4</v>
+        <v>7ad7542c</v>
       </c>
     </row>
     <row r="20">
@@ -768,7 +768,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H20" t="str">
-        <v>1d8e4595</v>
+        <v>46f8fb0b</v>
       </c>
     </row>
     <row r="21">
@@ -788,7 +788,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H21" t="str">
-        <v>d6831f3f</v>
+        <v>664ccb63</v>
       </c>
     </row>
     <row r="22">
@@ -808,7 +808,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H22" t="str">
-        <v>5570e46c</v>
+        <v>a446b23e</v>
       </c>
     </row>
     <row r="23">
@@ -828,7 +828,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H23" t="str">
-        <v>50bb32bf</v>
+        <v>1dc9b702</v>
       </c>
     </row>
     <row r="24">
@@ -848,7 +848,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H24" t="str">
-        <v>f31b2e80</v>
+        <v>f2fd5b6e</v>
       </c>
     </row>
     <row r="25">
@@ -868,7 +868,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H25" t="str">
-        <v>229ecfce</v>
+        <v>c90245c2</v>
       </c>
     </row>
     <row r="26">
@@ -888,7 +888,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H26" t="str">
-        <v>7cc00c3e</v>
+        <v>8914aae6</v>
       </c>
     </row>
     <row r="27">
@@ -908,7 +908,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H27" t="str">
-        <v>ebc0109d</v>
+        <v>3d3dd3ab</v>
       </c>
     </row>
     <row r="28">
@@ -928,7 +928,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H28" t="str">
-        <v>9d2e7e8d</v>
+        <v>eea57c5f</v>
       </c>
     </row>
     <row r="29">
@@ -948,7 +948,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H29" t="str">
-        <v>02f01563</v>
+        <v>4b8c6408</v>
       </c>
     </row>
     <row r="30">
@@ -968,7 +968,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H30" t="str">
-        <v>e7e8e229</v>
+        <v>28549724</v>
       </c>
     </row>
     <row r="31">
@@ -988,7 +988,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H31" t="str">
-        <v>aec22f0a</v>
+        <v>bc0882ce</v>
       </c>
     </row>
     <row r="32">
@@ -1008,7 +1008,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H32" t="str">
-        <v>1fe37c13</v>
+        <v>938666fc</v>
       </c>
     </row>
     <row r="33">
@@ -1028,7 +1028,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H33" t="str">
-        <v>ab34219d</v>
+        <v>9a3dcafe</v>
       </c>
     </row>
     <row r="34">
@@ -1048,7 +1048,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H34" t="str">
-        <v>b30e1fb0</v>
+        <v>c8e0b309</v>
       </c>
     </row>
     <row r="35">
@@ -1068,7 +1068,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H35" t="str">
-        <v>3cbaadd8</v>
+        <v>e37c80f7</v>
       </c>
     </row>
     <row r="36">
@@ -1088,7 +1088,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H36" t="str">
-        <v>82964ba7</v>
+        <v>9ab4083b</v>
       </c>
     </row>
     <row r="37">
@@ -1108,7 +1108,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H37" t="str">
-        <v>96961bbf</v>
+        <v>9deb5ab1</v>
       </c>
     </row>
     <row r="38">
@@ -1128,7 +1128,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H38" t="str">
-        <v>183c3e0b</v>
+        <v>82f8e773</v>
       </c>
     </row>
     <row r="39">
@@ -1148,7 +1148,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H39" t="str">
-        <v>ebfef966</v>
+        <v>1deb67e5</v>
       </c>
     </row>
     <row r="40">
@@ -1168,7 +1168,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H40" t="str">
-        <v>f6dda408</v>
+        <v>1fe587bc</v>
       </c>
     </row>
     <row r="41">
@@ -1188,7 +1188,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H41" t="str">
-        <v>77579898</v>
+        <v>35be32d9</v>
       </c>
     </row>
     <row r="42">
@@ -1208,7 +1208,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H42" t="str">
-        <v>f2a05a23</v>
+        <v>ae408afd</v>
       </c>
     </row>
     <row r="43">
@@ -1228,7 +1228,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H43" t="str">
-        <v>cca5a896</v>
+        <v>4b455c44</v>
       </c>
     </row>
     <row r="44">
@@ -1248,7 +1248,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H44" t="str">
-        <v>3241ba84</v>
+        <v>15085f8b</v>
       </c>
     </row>
     <row r="45">
@@ -1268,7 +1268,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H45" t="str">
-        <v>eb3226cd</v>
+        <v>d302d766</v>
       </c>
     </row>
     <row r="46">
@@ -1288,7 +1288,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H46" t="str">
-        <v>9f5d24a9</v>
+        <v>7085db31</v>
       </c>
     </row>
     <row r="47">
@@ -1308,7 +1308,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H47" t="str">
-        <v>2ca7fbcd</v>
+        <v>e5070495</v>
       </c>
     </row>
     <row r="48">
@@ -1328,7 +1328,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H48" t="str">
-        <v>04cfe122</v>
+        <v>87db26a4</v>
       </c>
     </row>
     <row r="49">
@@ -1348,7 +1348,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H49" t="str">
-        <v>0521e4c1</v>
+        <v>fb3d146b</v>
       </c>
     </row>
     <row r="50">
@@ -1368,7 +1368,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H50" t="str">
-        <v>717862d8</v>
+        <v>67572119</v>
       </c>
     </row>
     <row r="51">
@@ -1388,7 +1388,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H51" t="str">
-        <v>4df90b18</v>
+        <v>dc88cc5f</v>
       </c>
     </row>
     <row r="52">
@@ -1408,7 +1408,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H52" t="str">
-        <v>a5cc5991</v>
+        <v>b7098070</v>
       </c>
     </row>
     <row r="53">
@@ -1428,7 +1428,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H53" t="str">
-        <v>a63ae929</v>
+        <v>450bfd1b</v>
       </c>
     </row>
     <row r="54">
@@ -1448,7 +1448,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H54" t="str">
-        <v>079bbd60</v>
+        <v>d5bc3d50</v>
       </c>
     </row>
     <row r="55">
@@ -1468,7 +1468,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H55" t="str">
-        <v>7b21a1b0</v>
+        <v>e5087ac3</v>
       </c>
     </row>
     <row r="56">
@@ -1488,7 +1488,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H56" t="str">
-        <v>d5746857</v>
+        <v>6c56b9e2</v>
       </c>
     </row>
     <row r="57">
@@ -1508,7 +1508,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H57" t="str">
-        <v>53acd6bc</v>
+        <v>747c9a85</v>
       </c>
     </row>
     <row r="58">
@@ -1528,7 +1528,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H58" t="str">
-        <v>ac7f7878</v>
+        <v>8cfe7b61</v>
       </c>
     </row>
     <row r="59">
@@ -1548,7 +1548,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H59" t="str">
-        <v>3e6cee32</v>
+        <v>3eec2589</v>
       </c>
     </row>
     <row r="60">
@@ -1568,7 +1568,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H60" t="str">
-        <v>a823ebc0</v>
+        <v>4bc73ffc</v>
       </c>
     </row>
     <row r="61">
@@ -1588,7 +1588,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H61" t="str">
-        <v>aca6cb06</v>
+        <v>6d60c487</v>
       </c>
     </row>
     <row r="62">
@@ -1608,7 +1608,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H62" t="str">
-        <v>c07c1845</v>
+        <v>2c2da532</v>
       </c>
     </row>
     <row r="63">
@@ -1628,7 +1628,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H63" t="str">
-        <v>94dc2d22</v>
+        <v>f2d46318</v>
       </c>
     </row>
     <row r="64">
@@ -1648,7 +1648,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H64" t="str">
-        <v>1ffdc7be</v>
+        <v>e675999f</v>
       </c>
     </row>
     <row r="65">
@@ -1668,7 +1668,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H65" t="str">
-        <v>68d16342</v>
+        <v>eb19cb7f</v>
       </c>
     </row>
     <row r="66">
@@ -1688,7 +1688,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H66" t="str">
-        <v>c8ae7ec0</v>
+        <v>f57c282c</v>
       </c>
     </row>
     <row r="67">
@@ -1708,7 +1708,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H67" t="str">
-        <v>17db686d</v>
+        <v>0da45e8e</v>
       </c>
     </row>
     <row r="68">
@@ -1728,7 +1728,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H68" t="str">
-        <v>cb98da8c</v>
+        <v>637da438</v>
       </c>
     </row>
     <row r="69">
@@ -1748,7 +1748,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H69" t="str">
-        <v>6fa2656d</v>
+        <v>08a5044f</v>
       </c>
     </row>
     <row r="70">
@@ -1768,7 +1768,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H70" t="str">
-        <v>d9d03f8f</v>
+        <v>959e20b7</v>
       </c>
     </row>
     <row r="71">
@@ -1788,7 +1788,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H71" t="str">
-        <v>dc3539d9</v>
+        <v>36a2ce83</v>
       </c>
     </row>
     <row r="72">
@@ -1808,7 +1808,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H72" t="str">
-        <v>80608ea5</v>
+        <v>97458f0b</v>
       </c>
     </row>
     <row r="73">
@@ -1828,7 +1828,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H73" t="str">
-        <v>67c87514</v>
+        <v>6e9bb971</v>
       </c>
     </row>
     <row r="74">
@@ -1848,7 +1848,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H74" t="str">
-        <v>5508b553</v>
+        <v>34c546ef</v>
       </c>
     </row>
     <row r="75">
@@ -1868,7 +1868,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H75" t="str">
-        <v>4ab38104</v>
+        <v>27b9f171</v>
       </c>
     </row>
     <row r="76">
@@ -1888,7 +1888,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H76" t="str">
-        <v>db9ef725</v>
+        <v>cd05bdf7</v>
       </c>
     </row>
     <row r="77">
@@ -1908,7 +1908,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H77" t="str">
-        <v>91b3d059</v>
+        <v>97564e91</v>
       </c>
     </row>
     <row r="78">
@@ -1928,7 +1928,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H78" t="str">
-        <v>99664506</v>
+        <v>f781b33d</v>
       </c>
     </row>
     <row r="79">
@@ -1948,7 +1948,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H79" t="str">
-        <v>291c1443</v>
+        <v>beae618b</v>
       </c>
     </row>
     <row r="80">
@@ -1968,7 +1968,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H80" t="str">
-        <v>aa7daa52</v>
+        <v>e693cedd</v>
       </c>
     </row>
     <row r="81">
@@ -1988,7 +1988,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H81" t="str">
-        <v>ca9df21a</v>
+        <v>6665fb64</v>
       </c>
     </row>
     <row r="82">
@@ -2008,7 +2008,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H82" t="str">
-        <v>711f7c77</v>
+        <v>7ae07745</v>
       </c>
     </row>
     <row r="83">
@@ -2028,7 +2028,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H83" t="str">
-        <v>c41c2b05</v>
+        <v>944063ff</v>
       </c>
     </row>
     <row r="84">
@@ -2048,7 +2048,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H84" t="str">
-        <v>77f7d438</v>
+        <v>31b078a3</v>
       </c>
     </row>
     <row r="85">
@@ -2068,7 +2068,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H85" t="str">
-        <v>5403aa6b</v>
+        <v>c9a67e76</v>
       </c>
     </row>
     <row r="86">
@@ -2088,7 +2088,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H86" t="str">
-        <v>401c4817</v>
+        <v>4c136138</v>
       </c>
     </row>
     <row r="87">
@@ -2108,7 +2108,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H87" t="str">
-        <v>48bc7271</v>
+        <v>9e09963c</v>
       </c>
     </row>
     <row r="88">
@@ -2128,7 +2128,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H88" t="str">
-        <v>50eedafc</v>
+        <v>e2060487</v>
       </c>
     </row>
     <row r="89">
@@ -2148,7 +2148,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H89" t="str">
-        <v>e21d26d1</v>
+        <v>c5fa59ef</v>
       </c>
     </row>
     <row r="90">
@@ -2168,7 +2168,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H90" t="str">
-        <v>24993800</v>
+        <v>e1080f0c</v>
       </c>
     </row>
     <row r="91">
@@ -2188,7 +2188,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H91" t="str">
-        <v>8a203289</v>
+        <v>2e3343bf</v>
       </c>
     </row>
     <row r="92">
@@ -2208,7 +2208,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H92" t="str">
-        <v>7ba4792a</v>
+        <v>39fae90a</v>
       </c>
     </row>
     <row r="93">
@@ -2228,7 +2228,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H93" t="str">
-        <v>72fb5ffd</v>
+        <v>bd536f06</v>
       </c>
     </row>
     <row r="94">
@@ -2248,7 +2248,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H94" t="str">
-        <v>3a567d2e</v>
+        <v>7c21b67b</v>
       </c>
     </row>
     <row r="95">
@@ -2268,7 +2268,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H95" t="str">
-        <v>8441368c</v>
+        <v>92de3996</v>
       </c>
     </row>
     <row r="96">
@@ -2288,7 +2288,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H96" t="str">
-        <v>fe723804</v>
+        <v>8c4d5cc2</v>
       </c>
     </row>
     <row r="97">
@@ -2308,7 +2308,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H97" t="str">
-        <v>90c46085</v>
+        <v>fbf7fb2a</v>
       </c>
     </row>
     <row r="98">
@@ -2328,7 +2328,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H98" t="str">
-        <v>4624e8f2</v>
+        <v>7b95754f</v>
       </c>
     </row>
     <row r="99">
@@ -2348,7 +2348,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H99" t="str">
-        <v>454885ea</v>
+        <v>882cdd10</v>
       </c>
     </row>
     <row r="100">
@@ -2368,7 +2368,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H100" t="str">
-        <v>2db4bc4b</v>
+        <v>7a3f0ea4</v>
       </c>
     </row>
     <row r="101">
@@ -2388,7 +2388,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H101" t="str">
-        <v>7f3463e0</v>
+        <v>25d64b37</v>
       </c>
     </row>
     <row r="102">
@@ -2408,7 +2408,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H102" t="str">
-        <v>4416dd66</v>
+        <v>80b10a49</v>
       </c>
     </row>
     <row r="103">
@@ -2428,7 +2428,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H103" t="str">
-        <v>1675f073</v>
+        <v>7c5f4eb7</v>
       </c>
     </row>
     <row r="104">
@@ -2448,7 +2448,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H104" t="str">
-        <v>f4c0e440</v>
+        <v>47f1dcc5</v>
       </c>
     </row>
     <row r="105">
@@ -2468,7 +2468,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H105" t="str">
-        <v>b86dfbd6</v>
+        <v>52ac0bea</v>
       </c>
     </row>
     <row r="106">
@@ -2488,7 +2488,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H106" t="str">
-        <v>011d34a9</v>
+        <v>23dddf3b</v>
       </c>
     </row>
     <row r="107">
@@ -2508,7 +2508,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H107" t="str">
-        <v>b1df8427</v>
+        <v>653a85e3</v>
       </c>
     </row>
     <row r="108">
@@ -2528,7 +2528,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H108" t="str">
-        <v>6acd57d7</v>
+        <v>d83c746a</v>
       </c>
     </row>
     <row r="109">
@@ -2548,7 +2548,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H109" t="str">
-        <v>f966baa6</v>
+        <v>09e0b99e</v>
       </c>
     </row>
     <row r="110">
@@ -2568,7 +2568,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H110" t="str">
-        <v>4cde8baf</v>
+        <v>b775e52b</v>
       </c>
     </row>
     <row r="111">
@@ -2588,7 +2588,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H111" t="str">
-        <v>25b76a74</v>
+        <v>3f4467fe</v>
       </c>
     </row>
     <row r="112">
@@ -2608,7 +2608,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H112" t="str">
-        <v>80b76988</v>
+        <v>1a1f15e9</v>
       </c>
     </row>
     <row r="113">
@@ -2628,7 +2628,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H113" t="str">
-        <v>1a84957f</v>
+        <v>6b99e58e</v>
       </c>
     </row>
     <row r="114">
@@ -2648,7 +2648,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H114" t="str">
-        <v>4e9eda41</v>
+        <v>07a32b42</v>
       </c>
     </row>
     <row r="115">
@@ -2668,7 +2668,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H115" t="str">
-        <v>f8768cc3</v>
+        <v>7ab011af</v>
       </c>
     </row>
     <row r="116">
@@ -2688,7 +2688,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H116" t="str">
-        <v>0d42278d</v>
+        <v>258dee81</v>
       </c>
     </row>
     <row r="117">
@@ -2708,7 +2708,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H117" t="str">
-        <v>6ee73679</v>
+        <v>753311bb</v>
       </c>
     </row>
     <row r="118">
@@ -2728,7 +2728,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H118" t="str">
-        <v>927f2d79</v>
+        <v>2a5c516a</v>
       </c>
     </row>
     <row r="119">
@@ -2748,7 +2748,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H119" t="str">
-        <v>51d7e17b</v>
+        <v>b8bd88ec</v>
       </c>
     </row>
     <row r="120">
@@ -2768,7 +2768,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H120" t="str">
-        <v>ee7ba6cc</v>
+        <v>f9b94be2</v>
       </c>
     </row>
     <row r="121">
@@ -2788,7 +2788,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H121" t="str">
-        <v>72682f21</v>
+        <v>99611e23</v>
       </c>
     </row>
     <row r="122">
@@ -2808,7 +2808,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H122" t="str">
-        <v>eddd77ca</v>
+        <v>95ae58d6</v>
       </c>
     </row>
     <row r="123">
@@ -2828,7 +2828,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H123" t="str">
-        <v>d1f83463</v>
+        <v>3fb144d4</v>
       </c>
     </row>
     <row r="124">
@@ -2848,7 +2848,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H124" t="str">
-        <v>b57c26be</v>
+        <v>ef73fdbd</v>
       </c>
     </row>
     <row r="125">
@@ -2868,7 +2868,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H125" t="str">
-        <v>aaf00548</v>
+        <v>c4f65788</v>
       </c>
     </row>
     <row r="126">
@@ -2888,7 +2888,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H126" t="str">
-        <v>3fb81e3a</v>
+        <v>3f0afc92</v>
       </c>
     </row>
     <row r="127">
@@ -2908,7 +2908,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H127" t="str">
-        <v>80e066b0</v>
+        <v>341ea0b6</v>
       </c>
     </row>
     <row r="128">
@@ -2928,7 +2928,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H128" t="str">
-        <v>aa6bee94</v>
+        <v>20e24896</v>
       </c>
     </row>
     <row r="129">
@@ -2948,7 +2948,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H129" t="str">
-        <v>6dde8119</v>
+        <v>505f170f</v>
       </c>
     </row>
     <row r="130">
@@ -2968,7 +2968,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H130" t="str">
-        <v>564a3ba5</v>
+        <v>5700f1c0</v>
       </c>
     </row>
     <row r="131">
@@ -2988,7 +2988,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H131" t="str">
-        <v>4deae63c</v>
+        <v>88935779</v>
       </c>
     </row>
     <row r="132">
@@ -3008,7 +3008,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H132" t="str">
-        <v>39c0f41d</v>
+        <v>ab8aea9a</v>
       </c>
     </row>
     <row r="133">
@@ -3028,7 +3028,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H133" t="str">
-        <v>dcfb8d7b</v>
+        <v>c677f64b</v>
       </c>
     </row>
     <row r="134">
@@ -3048,7 +3048,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H134" t="str">
-        <v>06ee5ad7</v>
+        <v>2a008ef5</v>
       </c>
     </row>
     <row r="135">
@@ -3068,7 +3068,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H135" t="str">
-        <v>6e8ee685</v>
+        <v>d650f90d</v>
       </c>
     </row>
     <row r="136">
@@ -3088,7 +3088,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H136" t="str">
-        <v>ad0aff28</v>
+        <v>e4790a2b</v>
       </c>
     </row>
     <row r="137">
@@ -3108,7 +3108,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H137" t="str">
-        <v>5b095c05</v>
+        <v>991a0913</v>
       </c>
     </row>
     <row r="138">
@@ -3128,7 +3128,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H138" t="str">
-        <v>9101bc58</v>
+        <v>18cda2a7</v>
       </c>
     </row>
     <row r="139">
@@ -3148,7 +3148,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H139" t="str">
-        <v>b4dbdf95</v>
+        <v>b1ecb059</v>
       </c>
     </row>
     <row r="140">
@@ -3168,7 +3168,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H140" t="str">
-        <v>2b98fa60</v>
+        <v>2d062e97</v>
       </c>
     </row>
     <row r="141">
@@ -3188,7 +3188,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H141" t="str">
-        <v>8b3934b2</v>
+        <v>9a5ba7e5</v>
       </c>
     </row>
     <row r="142">
@@ -3208,7 +3208,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H142" t="str">
-        <v>a55f7b3e</v>
+        <v>dbe2392c</v>
       </c>
     </row>
     <row r="143">
@@ -3228,7 +3228,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H143" t="str">
-        <v>18ca68f7</v>
+        <v>c528d11b</v>
       </c>
     </row>
     <row r="144">
@@ -3248,7 +3248,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H144" t="str">
-        <v>67277a59</v>
+        <v>39d70f68</v>
       </c>
     </row>
     <row r="145">
@@ -3268,7 +3268,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H145" t="str">
-        <v>a74648c6</v>
+        <v>7e82ddbb</v>
       </c>
     </row>
     <row r="146">
@@ -3288,7 +3288,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H146" t="str">
-        <v>1e23706b</v>
+        <v>5405ec2b</v>
       </c>
     </row>
     <row r="147">
@@ -3308,7 +3308,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H147" t="str">
-        <v>170680c7</v>
+        <v>061f8e2d</v>
       </c>
     </row>
     <row r="148">
@@ -3328,7 +3328,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H148" t="str">
-        <v>ee639a54</v>
+        <v>6ed3b06a</v>
       </c>
     </row>
     <row r="149">
@@ -3348,7 +3348,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H149" t="str">
-        <v>e9ccc0e5</v>
+        <v>20fc9b38</v>
       </c>
     </row>
     <row r="150">
@@ -3368,7 +3368,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H150" t="str">
-        <v>e651999e</v>
+        <v>397ca239</v>
       </c>
     </row>
     <row r="151">
@@ -3388,7 +3388,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H151" t="str">
-        <v>705653cd</v>
+        <v>161d1790</v>
       </c>
     </row>
     <row r="152">
@@ -3408,7 +3408,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H152" t="str">
-        <v>e287f5d2</v>
+        <v>2d564643</v>
       </c>
     </row>
     <row r="153">
@@ -3428,7 +3428,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H153" t="str">
-        <v>5eb69109</v>
+        <v>5412b02d</v>
       </c>
     </row>
     <row r="154">
@@ -3448,7 +3448,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H154" t="str">
-        <v>216ad457</v>
+        <v>01def707</v>
       </c>
     </row>
     <row r="155">
@@ -3468,7 +3468,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H155" t="str">
-        <v>b584bb1e</v>
+        <v>c57295d4</v>
       </c>
     </row>
     <row r="156">
@@ -3488,7 +3488,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H156" t="str">
-        <v>2f37a8ab</v>
+        <v>d1758c47</v>
       </c>
     </row>
     <row r="157">
@@ -3508,7 +3508,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H157" t="str">
-        <v>2c5a556e</v>
+        <v>0a8efff9</v>
       </c>
     </row>
     <row r="158">
@@ -3528,7 +3528,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H158" t="str">
-        <v>eb80a458</v>
+        <v>25268b27</v>
       </c>
     </row>
     <row r="159">
@@ -3548,7 +3548,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H159" t="str">
-        <v>21d8a848</v>
+        <v>5f44bd92</v>
       </c>
     </row>
     <row r="160">
@@ -3568,7 +3568,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H160" t="str">
-        <v>a0f5f988</v>
+        <v>14b9acac</v>
       </c>
     </row>
     <row r="161">
@@ -3588,7 +3588,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H161" t="str">
-        <v>042b3dc7</v>
+        <v>b9c7cd71</v>
       </c>
     </row>
     <row r="162">
@@ -3608,7 +3608,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H162" t="str">
-        <v>a58616d7</v>
+        <v>be2132c1</v>
       </c>
     </row>
     <row r="163">
@@ -3628,7 +3628,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H163" t="str">
-        <v>0225826f</v>
+        <v>0651e938</v>
       </c>
     </row>
     <row r="164">
@@ -3648,7 +3648,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H164" t="str">
-        <v>098aaaa0</v>
+        <v>39cd66f6</v>
       </c>
     </row>
     <row r="165">
@@ -3668,7 +3668,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H165" t="str">
-        <v>f98fb847</v>
+        <v>67fb67c5</v>
       </c>
     </row>
     <row r="166">
@@ -3688,7 +3688,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H166" t="str">
-        <v>0ffe8fdb</v>
+        <v>a6fd51b1</v>
       </c>
     </row>
     <row r="167">
@@ -3708,7 +3708,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H167" t="str">
-        <v>1cde2f64</v>
+        <v>7adf94d3</v>
       </c>
     </row>
     <row r="168">
@@ -3728,7 +3728,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H168" t="str">
-        <v>3728f14c</v>
+        <v>20905e91</v>
       </c>
     </row>
     <row r="169">
@@ -3748,7 +3748,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H169" t="str">
-        <v>9d4f80b3</v>
+        <v>09aadc1c</v>
       </c>
     </row>
     <row r="170">
@@ -3768,7 +3768,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H170" t="str">
-        <v>65fa6f8f</v>
+        <v>46c36e3d</v>
       </c>
     </row>
     <row r="171">
@@ -3788,7 +3788,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H171" t="str">
-        <v>f427b862</v>
+        <v>b136b895</v>
       </c>
     </row>
     <row r="172">
@@ -3808,7 +3808,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H172" t="str">
-        <v>8c4541a4</v>
+        <v>fdb7cc62</v>
       </c>
     </row>
     <row r="173">
@@ -3828,7 +3828,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H173" t="str">
-        <v>866c192c</v>
+        <v>7e350e6f</v>
       </c>
     </row>
     <row r="174">
@@ -3848,7 +3848,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H174" t="str">
-        <v>155b7ca5</v>
+        <v>9e076cc2</v>
       </c>
     </row>
     <row r="175">
@@ -3868,7 +3868,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H175" t="str">
-        <v>f474ed03</v>
+        <v>7d239217</v>
       </c>
     </row>
     <row r="176">
@@ -3888,7 +3888,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H176" t="str">
-        <v>d5377d08</v>
+        <v>d147a1fd</v>
       </c>
     </row>
     <row r="177">
@@ -3908,7 +3908,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H177" t="str">
-        <v>e34c0411</v>
+        <v>914613c0</v>
       </c>
     </row>
     <row r="178">
@@ -3928,7 +3928,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H178" t="str">
-        <v>8457872b</v>
+        <v>e46064ea</v>
       </c>
     </row>
     <row r="179">
@@ -3948,7 +3948,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H179" t="str">
-        <v>bf12e810</v>
+        <v>45266b75</v>
       </c>
     </row>
     <row r="180">
@@ -3968,7 +3968,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H180" t="str">
-        <v>d650cbc0</v>
+        <v>880d25c7</v>
       </c>
     </row>
     <row r="181">
@@ -3988,7 +3988,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H181" t="str">
-        <v>e2b571c9</v>
+        <v>53cdbf31</v>
       </c>
     </row>
     <row r="182">
@@ -4008,7 +4008,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H182" t="str">
-        <v>3f05ed6c</v>
+        <v>4ec7ebbe</v>
       </c>
     </row>
     <row r="183">
@@ -4028,7 +4028,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H183" t="str">
-        <v>ff8a6fe1</v>
+        <v>8a54e222</v>
       </c>
     </row>
     <row r="184">
@@ -4048,7 +4048,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H184" t="str">
-        <v>f1832933</v>
+        <v>541e4454</v>
       </c>
     </row>
     <row r="185">
@@ -4068,7 +4068,7 @@
         <v>Contraseña</v>
       </c>
       <c r="H185" t="str">
-        <v>cf6785c0</v>
+        <v>a94271ef</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H185"/>
+  <dimension ref="A1:F185"/>
   <sheetData>
     <row r="1">
       <c r="A1">
@@ -404,12 +404,6 @@
       <c r="F2" t="str">
         <v xml:space="preserve">ASPRILLA ZAAC MARLON </v>
       </c>
-      <c r="G2" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H2" t="str">
-        <v>af099477</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -424,12 +418,6 @@
       <c r="F3" t="str">
         <v>AYALA PALOMEQUE EDWIN ALBERTO</v>
       </c>
-      <c r="G3" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H3" t="str">
-        <v>796b1430</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -444,12 +432,6 @@
       <c r="F4" t="str">
         <v xml:space="preserve">BORJA MOSQUERA EDWAR </v>
       </c>
-      <c r="G4" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H4" t="str">
-        <v>ba4ff582</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -464,12 +446,6 @@
       <c r="F5" t="str">
         <v>CORDOBA SALAS OLVIS EMILIANY</v>
       </c>
-      <c r="G5" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H5" t="str">
-        <v>12e20d5e</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -484,12 +460,6 @@
       <c r="F6" t="str">
         <v>CORDOBA VALENCIA WILSON FERNANDO</v>
       </c>
-      <c r="G6" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H6" t="str">
-        <v>0c598d6b</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -504,12 +474,6 @@
       <c r="F7" t="str">
         <v xml:space="preserve">GALEANO MORENO HAMILTON </v>
       </c>
-      <c r="G7" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H7" t="str">
-        <v>f22692e3</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -524,12 +488,6 @@
       <c r="F8" t="str">
         <v>HALABY GAMBOA FREDDY ENRIQUE</v>
       </c>
-      <c r="G8" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H8" t="str">
-        <v>1d8d0241</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -544,12 +502,6 @@
       <c r="F9" t="str">
         <v>IBARGUEN GARCIA DILAN CAMILO</v>
       </c>
-      <c r="G9" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H9" t="str">
-        <v>392a0e3d</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -564,12 +516,6 @@
       <c r="F10" t="str">
         <v>MARMOLEJO PALACIOS BILMAN ANDRES</v>
       </c>
-      <c r="G10" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H10" t="str">
-        <v>c15ca7d4</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -584,12 +530,6 @@
       <c r="F11" t="str">
         <v>MENDOZA PALMA CARLOS NICOLAS</v>
       </c>
-      <c r="G11" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H11" t="str">
-        <v>488c02a5</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -604,12 +544,6 @@
       <c r="F12" t="str">
         <v xml:space="preserve">MORENO BENITEZ YENNY </v>
       </c>
-      <c r="G12" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H12" t="str">
-        <v>5fd47653</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -624,12 +558,6 @@
       <c r="F13" t="str">
         <v>MOSQUERA MURILLO KARIN YULIANA</v>
       </c>
-      <c r="G13" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H13" t="str">
-        <v>187c5194</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -644,12 +572,6 @@
       <c r="F14" t="str">
         <v xml:space="preserve">PALACIOS MORENO ALDAIR </v>
       </c>
-      <c r="G14" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H14" t="str">
-        <v>1927ce30</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -664,12 +586,6 @@
       <c r="F15" t="str">
         <v>PALACIOS RODRIGUEZ JULIO CESAR</v>
       </c>
-      <c r="G15" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H15" t="str">
-        <v>b7283f31</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -684,12 +600,6 @@
       <c r="F16" t="str">
         <v xml:space="preserve">PALOMEQUE MORENO LEINER </v>
       </c>
-      <c r="G16" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H16" t="str">
-        <v>5c56eefb</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -704,12 +614,6 @@
       <c r="F17" t="str">
         <v>PEÑA AROCA EDGAR ENRIQUE</v>
       </c>
-      <c r="G17" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H17" t="str">
-        <v>ebbf7b2a</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -724,12 +628,6 @@
       <c r="F18" t="str">
         <v>RAMIREZ COPETE MIGUEL ANTONIO</v>
       </c>
-      <c r="G18" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H18" t="str">
-        <v>928ac21f</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -744,12 +642,6 @@
       <c r="F19" t="str">
         <v>RIVAS MURILLO JUAN CARLOS</v>
       </c>
-      <c r="G19" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H19" t="str">
-        <v>7ad7542c</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -764,12 +656,6 @@
       <c r="F20" t="str">
         <v>SANCHEZ GALDINO STIVING ANTONY</v>
       </c>
-      <c r="G20" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H20" t="str">
-        <v>46f8fb0b</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -784,12 +670,6 @@
       <c r="F21" t="str">
         <v>URRUTIA TORRES DWARLYN DARIO</v>
       </c>
-      <c r="G21" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H21" t="str">
-        <v>664ccb63</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -804,12 +684,6 @@
       <c r="F22" t="str">
         <v>VALOIS MOSQUERA JAIME ALBERTO</v>
       </c>
-      <c r="G22" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H22" t="str">
-        <v>a446b23e</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -824,12 +698,6 @@
       <c r="F23" t="str">
         <v>ASPRILLA MENA FREDY JOAN</v>
       </c>
-      <c r="G23" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H23" t="str">
-        <v>1dc9b702</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -844,12 +712,6 @@
       <c r="F24" t="str">
         <v xml:space="preserve">BORJA CORDOBA ARLEY </v>
       </c>
-      <c r="G24" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H24" t="str">
-        <v>f2fd5b6e</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -864,12 +726,6 @@
       <c r="F25" t="str">
         <v>CORDOBA GONZALEZ CRISTIAN ANDRES</v>
       </c>
-      <c r="G25" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H25" t="str">
-        <v>c90245c2</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -884,12 +740,6 @@
       <c r="F26" t="str">
         <v>CUESTA JURADO YERLING ANDRES</v>
       </c>
-      <c r="G26" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H26" t="str">
-        <v>8914aae6</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -904,12 +754,6 @@
       <c r="F27" t="str">
         <v xml:space="preserve">ESCOBAR BERRIO EDINSON </v>
       </c>
-      <c r="G27" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H27" t="str">
-        <v>3d3dd3ab</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -924,12 +768,6 @@
       <c r="F28" t="str">
         <v>FIGUEROA HENAO CARLOS ANDRES</v>
       </c>
-      <c r="G28" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H28" t="str">
-        <v>eea57c5f</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -944,12 +782,6 @@
       <c r="F29" t="str">
         <v>GARCES ANDRADE LEXY DIAMAR</v>
       </c>
-      <c r="G29" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H29" t="str">
-        <v>4b8c6408</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -964,12 +796,6 @@
       <c r="F30" t="str">
         <v xml:space="preserve">LLOREDA GOMEZ RAUL </v>
       </c>
-      <c r="G30" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H30" t="str">
-        <v>28549724</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -984,12 +810,6 @@
       <c r="F31" t="str">
         <v xml:space="preserve">MENA QUINTO DIRIEN </v>
       </c>
-      <c r="G31" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H31" t="str">
-        <v>bc0882ce</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -1004,12 +824,6 @@
       <c r="F32" t="str">
         <v>MORENO BECERRA YUSENNY SAMARA</v>
       </c>
-      <c r="G32" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H32" t="str">
-        <v>938666fc</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -1024,12 +838,6 @@
       <c r="F33" t="str">
         <v>PALACIOS MENA ESNEYDER AMIN</v>
       </c>
-      <c r="G33" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H33" t="str">
-        <v>9a3dcafe</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -1044,12 +852,6 @@
       <c r="F34" t="str">
         <v>PALACIOS MOSQUERA MIGUEL OSWALDO</v>
       </c>
-      <c r="G34" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H34" t="str">
-        <v>c8e0b309</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -1064,12 +866,6 @@
       <c r="F35" t="str">
         <v xml:space="preserve">PALOMEQUE PALACIOS RONALDO </v>
       </c>
-      <c r="G35" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H35" t="str">
-        <v>e37c80f7</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -1084,12 +880,6 @@
       <c r="F36" t="str">
         <v xml:space="preserve">PEÑA MENA FELIPE </v>
       </c>
-      <c r="G36" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H36" t="str">
-        <v>9ab4083b</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -1104,12 +894,6 @@
       <c r="F37" t="str">
         <v xml:space="preserve">BECERRA GUTIERREZ SAMIR </v>
       </c>
-      <c r="G37" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H37" t="str">
-        <v>9deb5ab1</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -1124,12 +908,6 @@
       <c r="F38" t="str">
         <v xml:space="preserve">GONZALEZ IBARGUEN CAROLINA </v>
       </c>
-      <c r="G38" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H38" t="str">
-        <v>82f8e773</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -1144,12 +922,6 @@
       <c r="F39" t="str">
         <v>HURTADO MACHADO HARLOW JUNIOR</v>
       </c>
-      <c r="G39" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H39" t="str">
-        <v>1deb67e5</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -1164,12 +936,6 @@
       <c r="F40" t="str">
         <v>MARTINEZ CORREA JHON FREISER</v>
       </c>
-      <c r="G40" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H40" t="str">
-        <v>1fe587bc</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -1184,12 +950,6 @@
       <c r="F41" t="str">
         <v xml:space="preserve">MARTINEZ GONZALEZ LISANDRO </v>
       </c>
-      <c r="G41" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H41" t="str">
-        <v>35be32d9</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -1204,12 +964,6 @@
       <c r="F42" t="str">
         <v>MINOTTA QUEJADA HEILER STIWAR</v>
       </c>
-      <c r="G42" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H42" t="str">
-        <v>ae408afd</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -1224,12 +978,6 @@
       <c r="F43" t="str">
         <v>MORENO LUNA CARLOS YOERLINTON</v>
       </c>
-      <c r="G43" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H43" t="str">
-        <v>4b455c44</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -1244,12 +992,6 @@
       <c r="F44" t="str">
         <v>PALACIOS MOSQUERA JOSE BLEINER</v>
       </c>
-      <c r="G44" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H44" t="str">
-        <v>15085f8b</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -1264,12 +1006,6 @@
       <c r="F45" t="str">
         <v xml:space="preserve">PEREA TRELLEZ YIRLENY </v>
       </c>
-      <c r="G45" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H45" t="str">
-        <v>d302d766</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -1284,12 +1020,6 @@
       <c r="F46" t="str">
         <v>SERNA ZEA JHEISON JAVIER</v>
       </c>
-      <c r="G46" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H46" t="str">
-        <v>7085db31</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -1304,12 +1034,6 @@
       <c r="F47" t="str">
         <v>MARTINEZ PALACIOS JUAN CARLOS</v>
       </c>
-      <c r="G47" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H47" t="str">
-        <v>e5070495</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -1324,12 +1048,6 @@
       <c r="F48" t="str">
         <v>ASPRILLA MOSQUERA CARLOS STIWAR</v>
       </c>
-      <c r="G48" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H48" t="str">
-        <v>87db26a4</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -1344,12 +1062,6 @@
       <c r="F49" t="str">
         <v>BECERRA CASAS YEISON ALBERTO</v>
       </c>
-      <c r="G49" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H49" t="str">
-        <v>fb3d146b</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -1364,12 +1076,6 @@
       <c r="F50" t="str">
         <v>BETANCUR SARRIA OSCAR STIVEN</v>
       </c>
-      <c r="G50" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H50" t="str">
-        <v>67572119</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -1384,12 +1090,6 @@
       <c r="F51" t="str">
         <v>BLANDON URRUTIA CRISTIAN EYVER</v>
       </c>
-      <c r="G51" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H51" t="str">
-        <v>dc88cc5f</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -1404,12 +1104,6 @@
       <c r="F52" t="str">
         <v>BOLIVAR TORRES CRISTIAN STIVEN</v>
       </c>
-      <c r="G52" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H52" t="str">
-        <v>b7098070</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -1424,12 +1118,6 @@
       <c r="F53" t="str">
         <v>CORDOBA CORDOBA STIWAR CHAR</v>
       </c>
-      <c r="G53" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H53" t="str">
-        <v>450bfd1b</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -1444,12 +1132,6 @@
       <c r="F54" t="str">
         <v>CUESTA MORENO YEIMAR ANDRES</v>
       </c>
-      <c r="G54" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H54" t="str">
-        <v>d5bc3d50</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -1464,12 +1146,6 @@
       <c r="F55" t="str">
         <v xml:space="preserve">GAMBOA BERRIO HASLER </v>
       </c>
-      <c r="G55" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H55" t="str">
-        <v>e5087ac3</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -1484,12 +1160,6 @@
       <c r="F56" t="str">
         <v>GARRIDO MOLINA WILLIAN ESPENSER</v>
       </c>
-      <c r="G56" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H56" t="str">
-        <v>6c56b9e2</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -1504,12 +1174,6 @@
       <c r="F57" t="str">
         <v>HENAO CHALA JEAN CARLOS</v>
       </c>
-      <c r="G57" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H57" t="str">
-        <v>747c9a85</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -1524,12 +1188,6 @@
       <c r="F58" t="str">
         <v>MONTOYA TAPIAS NEIDER RONALDO</v>
       </c>
-      <c r="G58" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H58" t="str">
-        <v>8cfe7b61</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -1544,12 +1202,6 @@
       <c r="F59" t="str">
         <v xml:space="preserve">PALACIOS MOSQUERA JAIVER </v>
       </c>
-      <c r="G59" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H59" t="str">
-        <v>3eec2589</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -1564,12 +1216,6 @@
       <c r="F60" t="str">
         <v>PALACIOS MOSQUERA JHON EDINSON</v>
       </c>
-      <c r="G60" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H60" t="str">
-        <v>4bc73ffc</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -1584,12 +1230,6 @@
       <c r="F61" t="str">
         <v>PEREA MOSQUERA LEITNET SMITH</v>
       </c>
-      <c r="G61" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H61" t="str">
-        <v>6d60c487</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -1604,12 +1244,6 @@
       <c r="F62" t="str">
         <v>PINILLA MOSQUERA ZAMIR YESID</v>
       </c>
-      <c r="G62" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H62" t="str">
-        <v>2c2da532</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -1624,12 +1258,6 @@
       <c r="F63" t="str">
         <v>RENTERIA MORENO DIEGO ALEXIS</v>
       </c>
-      <c r="G63" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H63" t="str">
-        <v>f2d46318</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -1644,12 +1272,6 @@
       <c r="F64" t="str">
         <v>SAUCEDO MOSQUERA JHORLEN ALEJANDRO</v>
       </c>
-      <c r="G64" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H64" t="str">
-        <v>e675999f</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -1664,12 +1286,6 @@
       <c r="F65" t="str">
         <v>VALENCIA VALENCIA JUAN DANIEL</v>
       </c>
-      <c r="G65" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H65" t="str">
-        <v>eb19cb7f</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -1684,12 +1300,6 @@
       <c r="F66" t="str">
         <v xml:space="preserve">VALOYES CORDOBA KEINER </v>
       </c>
-      <c r="G66" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H66" t="str">
-        <v>f57c282c</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -1704,12 +1314,6 @@
       <c r="F67" t="str">
         <v xml:space="preserve">VIERA IBARGUEN YUSER </v>
       </c>
-      <c r="G67" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H67" t="str">
-        <v>0da45e8e</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -1724,12 +1328,6 @@
       <c r="F68" t="str">
         <v>ASPRILLA CASTRO LUIS ANDERSON</v>
       </c>
-      <c r="G68" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H68" t="str">
-        <v>637da438</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -1744,12 +1342,6 @@
       <c r="F69" t="str">
         <v>AYALA PALACIOS ANDRES MAURICIO</v>
       </c>
-      <c r="G69" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H69" t="str">
-        <v>08a5044f</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -1764,12 +1356,6 @@
       <c r="F70" t="str">
         <v>CAICEDO PEREA ANDRES FELIPE</v>
       </c>
-      <c r="G70" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H70" t="str">
-        <v>959e20b7</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -1784,12 +1370,6 @@
       <c r="F71" t="str">
         <v xml:space="preserve">CAÑAS GUIZA SANTIAGO </v>
       </c>
-      <c r="G71" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H71" t="str">
-        <v>36a2ce83</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -1804,12 +1384,6 @@
       <c r="F72" t="str">
         <v xml:space="preserve">CORDOBA BLANDON DORLIAN </v>
       </c>
-      <c r="G72" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H72" t="str">
-        <v>97458f0b</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -1824,12 +1398,6 @@
       <c r="F73" t="str">
         <v xml:space="preserve">GIL CUESTA DUBERNEY </v>
       </c>
-      <c r="G73" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H73" t="str">
-        <v>6e9bb971</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -1844,12 +1412,6 @@
       <c r="F74" t="str">
         <v xml:space="preserve">IBARGUEN PEREA ALICIA </v>
       </c>
-      <c r="G74" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H74" t="str">
-        <v>34c546ef</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -1864,12 +1426,6 @@
       <c r="F75" t="str">
         <v>MENA MOSQUERA JOHAN MANUEL</v>
       </c>
-      <c r="G75" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H75" t="str">
-        <v>27b9f171</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -1884,12 +1440,6 @@
       <c r="F76" t="str">
         <v xml:space="preserve">MORENO VIVAS YENIFER </v>
       </c>
-      <c r="G76" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H76" t="str">
-        <v>cd05bdf7</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -1904,12 +1454,6 @@
       <c r="F77" t="str">
         <v>MOSQUERA GARCIA MANUEL EDUARDO</v>
       </c>
-      <c r="G77" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H77" t="str">
-        <v>97564e91</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -1924,12 +1468,6 @@
       <c r="F78" t="str">
         <v xml:space="preserve">MOYA BLANDON YEISER </v>
       </c>
-      <c r="G78" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H78" t="str">
-        <v>f781b33d</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -1944,12 +1482,6 @@
       <c r="F79" t="str">
         <v>PRADO CORDOBA CAMILO FRANCISCO</v>
       </c>
-      <c r="G79" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H79" t="str">
-        <v>beae618b</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -1964,12 +1496,6 @@
       <c r="F80" t="str">
         <v>ARIAS MOSQUERA WILLY JAIR</v>
       </c>
-      <c r="G80" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H80" t="str">
-        <v>e693cedd</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -1984,12 +1510,6 @@
       <c r="F81" t="str">
         <v>ARRIAGA MACHADO MARIO ALBERTO</v>
       </c>
-      <c r="G81" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H81" t="str">
-        <v>6665fb64</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -2004,12 +1524,6 @@
       <c r="F82" t="str">
         <v>CAICEDO RENGIFO RONALD ERNESTO</v>
       </c>
-      <c r="G82" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H82" t="str">
-        <v>7ae07745</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -2024,12 +1538,6 @@
       <c r="F83" t="str">
         <v>CANO VALOIS JOSE FEDERICO</v>
       </c>
-      <c r="G83" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H83" t="str">
-        <v>944063ff</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -2044,12 +1552,6 @@
       <c r="F84" t="str">
         <v>COPETE PALACIOS LUZ DIORIS</v>
       </c>
-      <c r="G84" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H84" t="str">
-        <v>31b078a3</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -2064,12 +1566,6 @@
       <c r="F85" t="str">
         <v>DIAZ GONZALEZ BORIS FRANCISCO</v>
       </c>
-      <c r="G85" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H85" t="str">
-        <v>c9a67e76</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -2084,12 +1580,6 @@
       <c r="F86" t="str">
         <v xml:space="preserve">FONNEGRA MAZO MAURICIO </v>
       </c>
-      <c r="G86" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H86" t="str">
-        <v>4c136138</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -2104,12 +1594,6 @@
       <c r="F87" t="str">
         <v>HURTADO BLANDON LUIS GILBERTO</v>
       </c>
-      <c r="G87" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H87" t="str">
-        <v>9e09963c</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -2124,12 +1608,6 @@
       <c r="F88" t="str">
         <v xml:space="preserve">HURTADO PALACIOS YARLEY </v>
       </c>
-      <c r="G88" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H88" t="str">
-        <v>e2060487</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -2144,12 +1622,6 @@
       <c r="F89" t="str">
         <v>MALO RAMIREZ KAREN YULIETH</v>
       </c>
-      <c r="G89" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H89" t="str">
-        <v>c5fa59ef</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -2164,12 +1636,6 @@
       <c r="F90" t="str">
         <v>MARTINEZ CORDOBA DONIER EMILIO</v>
       </c>
-      <c r="G90" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H90" t="str">
-        <v>e1080f0c</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -2184,12 +1650,6 @@
       <c r="F91" t="str">
         <v xml:space="preserve">MARTINEZ GOMEZ ELEAZAR </v>
       </c>
-      <c r="G91" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H91" t="str">
-        <v>2e3343bf</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -2204,12 +1664,6 @@
       <c r="F92" t="str">
         <v>MATURANA CUESTA CRISTIAN STIVEN</v>
       </c>
-      <c r="G92" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H92" t="str">
-        <v>39fae90a</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -2224,12 +1678,6 @@
       <c r="F93" t="str">
         <v>MAYO AGUILAR LUIS FERNANDO</v>
       </c>
-      <c r="G93" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H93" t="str">
-        <v>bd536f06</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -2244,12 +1692,6 @@
       <c r="F94" t="str">
         <v>MEDINA SALCEDO FREDY ANDRES</v>
       </c>
-      <c r="G94" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H94" t="str">
-        <v>7c21b67b</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -2264,12 +1706,6 @@
       <c r="F95" t="str">
         <v>MENA RENTERIA GUSTAVO ANDRES</v>
       </c>
-      <c r="G95" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H95" t="str">
-        <v>92de3996</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -2284,12 +1720,6 @@
       <c r="F96" t="str">
         <v xml:space="preserve">MENA SERNA DANIEL </v>
       </c>
-      <c r="G96" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H96" t="str">
-        <v>8c4d5cc2</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -2304,12 +1734,6 @@
       <c r="F97" t="str">
         <v>MENA URRUTIA JHONATAN SMITH</v>
       </c>
-      <c r="G97" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H97" t="str">
-        <v>fbf7fb2a</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -2324,12 +1748,6 @@
       <c r="F98" t="str">
         <v>MORENO RENTERÍA JHON FRANCIS</v>
       </c>
-      <c r="G98" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H98" t="str">
-        <v>7b95754f</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -2344,12 +1762,6 @@
       <c r="F99" t="str">
         <v xml:space="preserve">MOSQUERA GARRIDO STIWAR </v>
       </c>
-      <c r="G99" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H99" t="str">
-        <v>882cdd10</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -2364,12 +1776,6 @@
       <c r="F100" t="str">
         <v xml:space="preserve">MOSQUERA ROMAÑA LEYDER </v>
       </c>
-      <c r="G100" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H100" t="str">
-        <v>7a3f0ea4</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -2384,12 +1790,6 @@
       <c r="F101" t="str">
         <v>MURILLO HINESTROZA JEFFERSON DUVAN</v>
       </c>
-      <c r="G101" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H101" t="str">
-        <v>25d64b37</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -2404,12 +1804,6 @@
       <c r="F102" t="str">
         <v>PALACIOS RENTERIA LUIS MIGUEL</v>
       </c>
-      <c r="G102" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H102" t="str">
-        <v>80b10a49</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -2424,12 +1818,6 @@
       <c r="F103" t="str">
         <v>PALACIOS VALENCIA YEISON SNEIDER</v>
       </c>
-      <c r="G103" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H103" t="str">
-        <v>7c5f4eb7</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -2444,12 +1832,6 @@
       <c r="F104" t="str">
         <v>PEREA NAGLES JULIO CESAR</v>
       </c>
-      <c r="G104" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H104" t="str">
-        <v>47f1dcc5</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -2464,12 +1846,6 @@
       <c r="F105" t="str">
         <v>PINO CORREA CARLOS ANDRES</v>
       </c>
-      <c r="G105" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H105" t="str">
-        <v>52ac0bea</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -2484,12 +1860,6 @@
       <c r="F106" t="str">
         <v>RENTERIA SANCHEZ ARIEL DELIO</v>
       </c>
-      <c r="G106" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H106" t="str">
-        <v>23dddf3b</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -2504,12 +1874,6 @@
       <c r="F107" t="str">
         <v>RIVAS PALACIOS PEDRO LUIS</v>
       </c>
-      <c r="G107" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H107" t="str">
-        <v>653a85e3</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -2524,12 +1888,6 @@
       <c r="F108" t="str">
         <v>SERNA PALACIOS JUNIOR ANDRES</v>
       </c>
-      <c r="G108" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H108" t="str">
-        <v>d83c746a</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -2544,12 +1902,6 @@
       <c r="F109" t="str">
         <v>SERNA RENTERIA DARWIN ARLEY</v>
       </c>
-      <c r="G109" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H109" t="str">
-        <v>09e0b99e</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -2564,12 +1916,6 @@
       <c r="F110" t="str">
         <v>TOBON MUÑOZ JUAN DIEGO</v>
       </c>
-      <c r="G110" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H110" t="str">
-        <v>b775e52b</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -2584,12 +1930,6 @@
       <c r="F111" t="str">
         <v>TORRES CORDOBA KEIVER JOHAN</v>
       </c>
-      <c r="G111" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H111" t="str">
-        <v>3f4467fe</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -2604,12 +1944,6 @@
       <c r="F112" t="str">
         <v xml:space="preserve">VALENCIA URIBE ARLEINER </v>
       </c>
-      <c r="G112" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H112" t="str">
-        <v>1a1f15e9</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -2624,12 +1958,6 @@
       <c r="F113" t="str">
         <v>VALOYES CORDOBA CARLOS ANDRES</v>
       </c>
-      <c r="G113" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H113" t="str">
-        <v>6b99e58e</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -2644,12 +1972,6 @@
       <c r="F114" t="str">
         <v>ACHITO MORENO JHON STIVEN</v>
       </c>
-      <c r="G114" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H114" t="str">
-        <v>07a32b42</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -2664,12 +1986,6 @@
       <c r="F115" t="str">
         <v xml:space="preserve">BECERRA MARTINEZ YILMAR </v>
       </c>
-      <c r="G115" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H115" t="str">
-        <v>7ab011af</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -2684,12 +2000,6 @@
       <c r="F116" t="str">
         <v>BRAVO PEREA LINO SEBASTIAN</v>
       </c>
-      <c r="G116" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H116" t="str">
-        <v>258dee81</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -2704,12 +2014,6 @@
       <c r="F117" t="str">
         <v>CORRALES DIAZ CARLOS ANDRÉS</v>
       </c>
-      <c r="G117" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H117" t="str">
-        <v>753311bb</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -2724,12 +2028,6 @@
       <c r="F118" t="str">
         <v>CUESTA BLANDÓN CRISTIAN DAVID</v>
       </c>
-      <c r="G118" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H118" t="str">
-        <v>2a5c516a</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -2744,12 +2042,6 @@
       <c r="F119" t="str">
         <v>CUESTA PALACIOS YEISON ALBERTO</v>
       </c>
-      <c r="G119" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H119" t="str">
-        <v>b8bd88ec</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -2764,12 +2056,6 @@
       <c r="F120" t="str">
         <v>FLOREZ TORIJANO SAIDY KARINA</v>
       </c>
-      <c r="G120" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H120" t="str">
-        <v>f9b94be2</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -2784,12 +2070,6 @@
       <c r="F121" t="str">
         <v>GUISADO PALACIOS JAVI ESTEBAN</v>
       </c>
-      <c r="G121" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H121" t="str">
-        <v>99611e23</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -2804,12 +2084,6 @@
       <c r="F122" t="str">
         <v>HACHITO HACHITO DEYVI ANDRÉS</v>
       </c>
-      <c r="G122" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H122" t="str">
-        <v>95ae58d6</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -2824,12 +2098,6 @@
       <c r="F123" t="str">
         <v xml:space="preserve">HERRERA RAMIREZ ESTIBINSON </v>
       </c>
-      <c r="G123" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H123" t="str">
-        <v>3fb144d4</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -2844,12 +2112,6 @@
       <c r="F124" t="str">
         <v xml:space="preserve">LAGAREJO CORDOBA JOIVER </v>
       </c>
-      <c r="G124" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H124" t="str">
-        <v>ef73fdbd</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -2864,12 +2126,6 @@
       <c r="F125" t="str">
         <v>LEMOS RENTERIA NINFA LUISA</v>
       </c>
-      <c r="G125" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H125" t="str">
-        <v>c4f65788</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -2884,12 +2140,6 @@
       <c r="F126" t="str">
         <v xml:space="preserve">MENA BENITEZ JHONIER </v>
       </c>
-      <c r="G126" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H126" t="str">
-        <v>3f0afc92</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -2904,12 +2154,6 @@
       <c r="F127" t="str">
         <v>MENA CHAVERRA EDWARDS RUBHYN</v>
       </c>
-      <c r="G127" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H127" t="str">
-        <v>341ea0b6</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -2924,12 +2168,6 @@
       <c r="F128" t="str">
         <v>MENA PEREA DIDIER ANDRES</v>
       </c>
-      <c r="G128" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H128" t="str">
-        <v>20e24896</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -2944,12 +2182,6 @@
       <c r="F129" t="str">
         <v>MENA SALAS JHON FREDY</v>
       </c>
-      <c r="G129" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H129" t="str">
-        <v>505f170f</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -2964,12 +2196,6 @@
       <c r="F130" t="str">
         <v>MOSQUERA MATURANA JUAN CAMILO</v>
       </c>
-      <c r="G130" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H130" t="str">
-        <v>5700f1c0</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131">
@@ -2984,12 +2210,6 @@
       <c r="F131" t="str">
         <v xml:space="preserve">MOSQUERA SERNA MELISSA </v>
       </c>
-      <c r="G131" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H131" t="str">
-        <v>88935779</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -3004,12 +2224,6 @@
       <c r="F132" t="str">
         <v>MURILLO MEDINA CARLOS JHAIR</v>
       </c>
-      <c r="G132" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H132" t="str">
-        <v>ab8aea9a</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133">
@@ -3024,12 +2238,6 @@
       <c r="F133" t="str">
         <v>MURILLO MENA JASON ANDRES</v>
       </c>
-      <c r="G133" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H133" t="str">
-        <v>c677f64b</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134">
@@ -3044,12 +2252,6 @@
       <c r="F134" t="str">
         <v>ORTIZ ESCUDERO EDGAR ALONSO</v>
       </c>
-      <c r="G134" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H134" t="str">
-        <v>2a008ef5</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135">
@@ -3064,12 +2266,6 @@
       <c r="F135" t="str">
         <v>PALACIOS CAMPANA ANDRES MAURICIO</v>
       </c>
-      <c r="G135" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H135" t="str">
-        <v>d650f90d</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136">
@@ -3084,12 +2280,6 @@
       <c r="F136" t="str">
         <v>PALACIOS DIAZ KEVIN ANDRES</v>
       </c>
-      <c r="G136" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H136" t="str">
-        <v>e4790a2b</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137">
@@ -3104,12 +2294,6 @@
       <c r="F137" t="str">
         <v>PALOMEQUE GUERRERO WALTER ALEXANDER</v>
       </c>
-      <c r="G137" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H137" t="str">
-        <v>991a0913</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138">
@@ -3124,12 +2308,6 @@
       <c r="F138" t="str">
         <v>RENTERIA CUESTA DIDIER RICARDO</v>
       </c>
-      <c r="G138" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H138" t="str">
-        <v>18cda2a7</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139">
@@ -3144,12 +2322,6 @@
       <c r="F139" t="str">
         <v>RIOS CORDOBA JEYMER ARLEY</v>
       </c>
-      <c r="G139" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H139" t="str">
-        <v>b1ecb059</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140">
@@ -3164,12 +2336,6 @@
       <c r="F140" t="str">
         <v>ROBLEDO TELLO YONHAR ALONSO</v>
       </c>
-      <c r="G140" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H140" t="str">
-        <v>2d062e97</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141">
@@ -3184,12 +2350,6 @@
       <c r="F141" t="str">
         <v>SANCHEZ CORDOBA ELKIN STEEVEN</v>
       </c>
-      <c r="G141" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H141" t="str">
-        <v>9a5ba7e5</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142">
@@ -3204,12 +2364,6 @@
       <c r="F142" t="str">
         <v>SANTOS HURTADO LUIS FELIPE</v>
       </c>
-      <c r="G142" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H142" t="str">
-        <v>dbe2392c</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143">
@@ -3224,12 +2378,6 @@
       <c r="F143" t="str">
         <v>VALENCIA MORENO CRISTIAN DAVID</v>
       </c>
-      <c r="G143" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H143" t="str">
-        <v>c528d11b</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144">
@@ -3244,12 +2392,6 @@
       <c r="F144" t="str">
         <v xml:space="preserve">ARIAS TAPIA EDWAR </v>
       </c>
-      <c r="G144" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H144" t="str">
-        <v>39d70f68</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145">
@@ -3264,12 +2406,6 @@
       <c r="F145" t="str">
         <v xml:space="preserve">ASPRILLA SANCHEZ YEFERSON </v>
       </c>
-      <c r="G145" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H145" t="str">
-        <v>7e82ddbb</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146">
@@ -3284,12 +2420,6 @@
       <c r="F146" t="str">
         <v xml:space="preserve">CAICEDO PALOMEQUE DEYVINSON </v>
       </c>
-      <c r="G146" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H146" t="str">
-        <v>5405ec2b</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147">
@@ -3304,12 +2434,6 @@
       <c r="F147" t="str">
         <v>CAÑADAS ZUÑIGA CRISTIAN ALEXANDER</v>
       </c>
-      <c r="G147" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H147" t="str">
-        <v>061f8e2d</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148">
@@ -3324,12 +2448,6 @@
       <c r="F148" t="str">
         <v>CEBALLOS GARCES ERICK ARTURO</v>
       </c>
-      <c r="G148" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H148" t="str">
-        <v>6ed3b06a</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149">
@@ -3344,12 +2462,6 @@
       <c r="F149" t="str">
         <v>GINDRAMA PAPELITO LUIS ANGEL</v>
       </c>
-      <c r="G149" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H149" t="str">
-        <v>20fc9b38</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150">
@@ -3364,12 +2476,6 @@
       <c r="F150" t="str">
         <v>GUTIERREZ FERRER EMMANUEL WESLY</v>
       </c>
-      <c r="G150" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H150" t="str">
-        <v>397ca239</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151">
@@ -3384,12 +2490,6 @@
       <c r="F151" t="str">
         <v>HEREDIA CORDOBA CARLOS FREDY</v>
       </c>
-      <c r="G151" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H151" t="str">
-        <v>161d1790</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152">
@@ -3404,12 +2504,6 @@
       <c r="F152" t="str">
         <v xml:space="preserve">MATURANA SERNA YERLINSON </v>
       </c>
-      <c r="G152" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H152" t="str">
-        <v>2d564643</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153">
@@ -3424,12 +2518,6 @@
       <c r="F153" t="str">
         <v>MAYORAL MURILLO LUIS FERNANDO</v>
       </c>
-      <c r="G153" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H153" t="str">
-        <v>5412b02d</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154">
@@ -3444,12 +2532,6 @@
       <c r="F154" t="str">
         <v xml:space="preserve">MENA MORALES EDYNSON </v>
       </c>
-      <c r="G154" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H154" t="str">
-        <v>01def707</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155">
@@ -3464,12 +2546,6 @@
       <c r="F155" t="str">
         <v>MURILLO CHAVERRA JHON EIDER</v>
       </c>
-      <c r="G155" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H155" t="str">
-        <v>c57295d4</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156">
@@ -3484,12 +2560,6 @@
       <c r="F156" t="str">
         <v xml:space="preserve">MURILLO CORDOBA GEINER </v>
       </c>
-      <c r="G156" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H156" t="str">
-        <v>d1758c47</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157">
@@ -3504,12 +2574,6 @@
       <c r="F157" t="str">
         <v xml:space="preserve">MURILLO PANESSO MARIO </v>
       </c>
-      <c r="G157" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H157" t="str">
-        <v>0a8efff9</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158">
@@ -3524,12 +2588,6 @@
       <c r="F158" t="str">
         <v>PALACIOS VALENCIA JHON ERIK</v>
       </c>
-      <c r="G158" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H158" t="str">
-        <v>25268b27</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159">
@@ -3544,12 +2602,6 @@
       <c r="F159" t="str">
         <v>PEÑA CARRASCO DAIRO DE JESUS</v>
       </c>
-      <c r="G159" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H159" t="str">
-        <v>5f44bd92</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160">
@@ -3564,12 +2616,6 @@
       <c r="F160" t="str">
         <v>BOLAÑOS RIOS KEVIN ANDRES</v>
       </c>
-      <c r="G160" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H160" t="str">
-        <v>14b9acac</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161">
@@ -3584,12 +2630,6 @@
       <c r="F161" t="str">
         <v>FLOREZ CORDOBA ZAMIR STEVEN</v>
       </c>
-      <c r="G161" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H161" t="str">
-        <v>b9c7cd71</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162">
@@ -3604,12 +2644,6 @@
       <c r="F162" t="str">
         <v>GOMEZ SANCHEZ WALTER ZAMIR</v>
       </c>
-      <c r="G162" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H162" t="str">
-        <v>be2132c1</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163">
@@ -3624,12 +2658,6 @@
       <c r="F163" t="str">
         <v>HINESTROZA CAICEDO GERARDO ANDRES</v>
       </c>
-      <c r="G163" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H163" t="str">
-        <v>0651e938</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164">
@@ -3644,12 +2672,6 @@
       <c r="F164" t="str">
         <v xml:space="preserve">HURTADO IBARGUEN YILIBERT </v>
       </c>
-      <c r="G164" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H164" t="str">
-        <v>39cd66f6</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165">
@@ -3664,12 +2686,6 @@
       <c r="F165" t="str">
         <v>MOLINA MURILLO CARLOS ANDRES</v>
       </c>
-      <c r="G165" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H165" t="str">
-        <v>67fb67c5</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166">
@@ -3684,12 +2700,6 @@
       <c r="F166" t="str">
         <v>MOSQUERA GARCES JHONNIER ALEXANDER</v>
       </c>
-      <c r="G166" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H166" t="str">
-        <v>a6fd51b1</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167">
@@ -3704,12 +2714,6 @@
       <c r="F167" t="str">
         <v>MOSQUERA PALACIOS CARLOS YESID</v>
       </c>
-      <c r="G167" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H167" t="str">
-        <v>7adf94d3</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168">
@@ -3724,12 +2728,6 @@
       <c r="F168" t="str">
         <v>MOYA MURILLO PAOLA ANDREA</v>
       </c>
-      <c r="G168" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H168" t="str">
-        <v>20905e91</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169">
@@ -3744,12 +2742,6 @@
       <c r="F169" t="str">
         <v>OBREGON MOSQUERA DANIEL FABIAN</v>
       </c>
-      <c r="G169" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H169" t="str">
-        <v>09aadc1c</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170">
@@ -3764,12 +2756,6 @@
       <c r="F170" t="str">
         <v>SANCHEZ MURILLO WILLIAN ANDRES</v>
       </c>
-      <c r="G170" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H170" t="str">
-        <v>46c36e3d</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171">
@@ -3784,12 +2770,6 @@
       <c r="F171" t="str">
         <v>URRUTIA MOSQUERA WILLIAM ANDRES</v>
       </c>
-      <c r="G171" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H171" t="str">
-        <v>b136b895</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172">
@@ -3804,12 +2784,6 @@
       <c r="F172" t="str">
         <v>VALENCIA GOMEZ NESTOR DAVID</v>
       </c>
-      <c r="G172" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H172" t="str">
-        <v>fdb7cc62</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173">
@@ -3824,12 +2798,6 @@
       <c r="F173" t="str">
         <v>CORDOBA CASTRO JUAN BENANCIO</v>
       </c>
-      <c r="G173" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H173" t="str">
-        <v>7e350e6f</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174">
@@ -3844,12 +2812,6 @@
       <c r="F174" t="str">
         <v>FUQUENES RAMIREZ DREED KEVIN</v>
       </c>
-      <c r="G174" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H174" t="str">
-        <v>9e076cc2</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175">
@@ -3864,12 +2826,6 @@
       <c r="F175" t="str">
         <v>GIRON BOLIVAR JUAN STIVEN</v>
       </c>
-      <c r="G175" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H175" t="str">
-        <v>7d239217</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176">
@@ -3884,12 +2840,6 @@
       <c r="F176" t="str">
         <v>GUILLIN LIDUEÑA MILTON DARIO</v>
       </c>
-      <c r="G176" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H176" t="str">
-        <v>d147a1fd</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177">
@@ -3904,12 +2854,6 @@
       <c r="F177" t="str">
         <v xml:space="preserve">MENA MORENO FRANKLIN </v>
       </c>
-      <c r="G177" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H177" t="str">
-        <v>914613c0</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178">
@@ -3924,12 +2868,6 @@
       <c r="F178" t="str">
         <v>MORENO MENA MARIA YARITZA</v>
       </c>
-      <c r="G178" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H178" t="str">
-        <v>e46064ea</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179">
@@ -3944,12 +2882,6 @@
       <c r="F179" t="str">
         <v>MORENO RIOS ERIK JHONFER</v>
       </c>
-      <c r="G179" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H179" t="str">
-        <v>45266b75</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180">
@@ -3964,12 +2896,6 @@
       <c r="F180" t="str">
         <v xml:space="preserve">PALOMEQUE ROMAÑA AGUSTINA </v>
       </c>
-      <c r="G180" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H180" t="str">
-        <v>880d25c7</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181">
@@ -3984,12 +2910,6 @@
       <c r="F181" t="str">
         <v>PEÑA GOMEZ DAYRO EUGENIO</v>
       </c>
-      <c r="G181" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H181" t="str">
-        <v>53cdbf31</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182">
@@ -4004,12 +2924,6 @@
       <c r="F182" t="str">
         <v xml:space="preserve">RODRIGUEZ PALACIOS ADAN </v>
       </c>
-      <c r="G182" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H182" t="str">
-        <v>4ec7ebbe</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183">
@@ -4024,12 +2938,6 @@
       <c r="F183" t="str">
         <v>VALENCIA GONZALEZ JANNYA SOFIA</v>
       </c>
-      <c r="G183" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H183" t="str">
-        <v>8a54e222</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184">
@@ -4044,12 +2952,6 @@
       <c r="F184" t="str">
         <v>VALENCIA PALACIOS MARIA ELENA</v>
       </c>
-      <c r="G184" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H184" t="str">
-        <v>541e4454</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185">
@@ -4064,12 +2966,6 @@
       <c r="F185" t="str">
         <v>VALOYES VALOYES HAMILTON YESID</v>
       </c>
-      <c r="G185" t="str">
-        <v>Contraseña</v>
-      </c>
-      <c r="H185" t="str">
-        <v>a94271ef</v>
-      </c>
     </row>
   </sheetData>
 </worksheet>
